--- a/analysen/choropleth_AfD.xlsx
+++ b/analysen/choropleth_AfD.xlsx
@@ -2933,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>10.8792171754053</v>
+        <v>10.8517984353831</v>
       </c>
       <c r="G2" t="n">
-        <v>1.90916285279999</v>
+        <v>1.88174411277777</v>
       </c>
     </row>
     <row r="3">
@@ -2956,10 +2956,10 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>10.357872407291</v>
+        <v>10.3326253419128</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36202278052467</v>
+        <v>1.33677571514648</v>
       </c>
     </row>
     <row r="4">
@@ -2979,10 +2979,10 @@
         <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>14.8069376628823</v>
+        <v>14.7644792257833</v>
       </c>
       <c r="G4" t="n">
-        <v>1.37823921365508</v>
+        <v>1.3357807765561</v>
       </c>
     </row>
     <row r="5">
@@ -3002,10 +3002,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>14.9724011039558</v>
+        <v>14.9189532229205</v>
       </c>
       <c r="G5" t="n">
-        <v>2.73812233232737</v>
+        <v>2.68467445129204</v>
       </c>
     </row>
     <row r="6">
@@ -3025,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>14.8922462797807</v>
+        <v>14.8237098883412</v>
       </c>
       <c r="G6" t="n">
-        <v>4.23941853902467</v>
+        <v>4.17088214758518</v>
       </c>
     </row>
     <row r="7">
@@ -3048,10 +3048,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>18.111753371869</v>
+        <v>18.3235867446394</v>
       </c>
       <c r="G7" t="n">
-        <v>4.98675337186898</v>
+        <v>5.19858674463937</v>
       </c>
     </row>
     <row r="8">
@@ -3071,10 +3071,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>18.2256509161041</v>
+        <v>18.2696955050749</v>
       </c>
       <c r="G8" t="n">
-        <v>3.23769910887523</v>
+        <v>3.281743697846</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>19.3981596617757</v>
+        <v>19.3548387096774</v>
       </c>
       <c r="G9" t="n">
-        <v>5.90137318236601</v>
+        <v>5.85805223026775</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>20.1117318435754</v>
+        <v>19.993057965984</v>
       </c>
       <c r="G10" t="n">
-        <v>3.96076278543193</v>
+        <v>3.84208890784054</v>
       </c>
     </row>
     <row r="11">
@@ -3140,10 +3140,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>20.483032711709</v>
+        <v>20.4455294476655</v>
       </c>
       <c r="G11" t="n">
-        <v>8.63721635320065</v>
+        <v>8.59971308915724</v>
       </c>
     </row>
     <row r="12">
@@ -3163,10 +3163,10 @@
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>18.9117451891175</v>
+        <v>18.8741721854305</v>
       </c>
       <c r="G12" t="n">
-        <v>6.90917779502246</v>
+        <v>6.87160479133547</v>
       </c>
     </row>
     <row r="13">
@@ -3186,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>16.115011701772</v>
+        <v>16.0881174899866</v>
       </c>
       <c r="G13" t="n">
-        <v>3.88867286714753</v>
+        <v>3.86177865536219</v>
       </c>
     </row>
     <row r="14">
@@ -3209,10 +3209,10 @@
         <v>9</v>
       </c>
       <c r="F14" t="n">
-        <v>20.933482392398</v>
+        <v>20.9159452666853</v>
       </c>
       <c r="G14" t="n">
-        <v>8.09979217112746</v>
+        <v>8.08225504541476</v>
       </c>
     </row>
     <row r="15">
@@ -3278,10 +3278,10 @@
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>22.0211827007944</v>
+        <v>21.9244288224956</v>
       </c>
       <c r="G17" t="n">
-        <v>8.52161262340828</v>
+        <v>8.42485874510954</v>
       </c>
     </row>
     <row r="18">
@@ -3301,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>19.2210602235846</v>
+        <v>19.2557803468208</v>
       </c>
       <c r="G18" t="n">
-        <v>6.657331163133</v>
+        <v>6.69205128636924</v>
       </c>
     </row>
     <row r="19">
@@ -3324,10 +3324,10 @@
         <v>9</v>
       </c>
       <c r="F19" t="n">
-        <v>20.5759330759331</v>
+        <v>20.5494858611825</v>
       </c>
       <c r="G19" t="n">
-        <v>6.46195961769732</v>
+        <v>6.43551240294677</v>
       </c>
     </row>
     <row r="20">
@@ -3347,10 +3347,10 @@
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>20.6563706563707</v>
+        <v>20.5656232839099</v>
       </c>
       <c r="G20" t="n">
-        <v>6.31644113617548</v>
+        <v>6.22569376371477</v>
       </c>
     </row>
     <row r="21">
@@ -3370,10 +3370,10 @@
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>17.115804806992</v>
+        <v>17.134524243529</v>
       </c>
       <c r="G21" t="n">
-        <v>7.17707097445285</v>
+        <v>7.19579041098984</v>
       </c>
     </row>
     <row r="22">
@@ -3393,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>16.398645789251</v>
+        <v>16.3295406658239</v>
       </c>
       <c r="G22" t="n">
-        <v>5.03881315326769</v>
+        <v>4.96970802984059</v>
       </c>
     </row>
     <row r="23">
@@ -3416,10 +3416,10 @@
         <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>22.52299021062</v>
+        <v>22.4513935092777</v>
       </c>
       <c r="G23" t="n">
-        <v>10.5690177685209</v>
+        <v>10.4974210671786</v>
       </c>
     </row>
     <row r="24">
@@ -3439,10 +3439,10 @@
         <v>9</v>
       </c>
       <c r="F24" t="n">
-        <v>19.9877250409165</v>
+        <v>19.9306405548756</v>
       </c>
       <c r="G24" t="n">
-        <v>6.45213577603905</v>
+        <v>6.39505128999808</v>
       </c>
     </row>
     <row r="25">
@@ -3462,10 +3462,10 @@
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>19.1445730188956</v>
+        <v>19.1221653255304</v>
       </c>
       <c r="G25" t="n">
-        <v>6.69822108756509</v>
+        <v>6.67581339419988</v>
       </c>
     </row>
     <row r="26">
@@ -3485,10 +3485,10 @@
         <v>9</v>
       </c>
       <c r="F26" t="n">
-        <v>21.263412422548</v>
+        <v>21.2153196622437</v>
       </c>
       <c r="G26" t="n">
-        <v>7.02678260480075</v>
+        <v>6.97868984449643</v>
       </c>
     </row>
     <row r="27">
@@ -3508,10 +3508,10 @@
         <v>9</v>
       </c>
       <c r="F27" t="n">
-        <v>19.9262640449438</v>
+        <v>19.9018060669823</v>
       </c>
       <c r="G27" t="n">
-        <v>6.87557280070419</v>
+        <v>6.85111482274266</v>
       </c>
     </row>
     <row r="28">
@@ -3531,10 +3531,10 @@
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>18.7955504411201</v>
+        <v>18.8027628549501</v>
       </c>
       <c r="G28" t="n">
-        <v>6.70804580634068</v>
+        <v>6.71525822017073</v>
       </c>
     </row>
     <row r="29">
@@ -3554,10 +3554,10 @@
         <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>16.9663042308106</v>
+        <v>16.9280343716434</v>
       </c>
       <c r="G29" t="n">
-        <v>3.99440825765627</v>
+        <v>3.95613839848903</v>
       </c>
     </row>
     <row r="30">
@@ -3577,10 +3577,10 @@
         <v>9</v>
       </c>
       <c r="F30" t="n">
-        <v>17.1075837742504</v>
+        <v>17.0354759395855</v>
       </c>
       <c r="G30" t="n">
-        <v>6.42488126275415</v>
+        <v>6.35277342808924</v>
       </c>
     </row>
     <row r="31">
@@ -3600,10 +3600,10 @@
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>21.7325851922814</v>
+        <v>21.6703056768559</v>
       </c>
       <c r="G31" t="n">
-        <v>8.98813926970588</v>
+        <v>8.9258597542804</v>
       </c>
     </row>
     <row r="32">
@@ -3623,10 +3623,10 @@
         <v>9</v>
       </c>
       <c r="F32" t="n">
-        <v>21.1657559198543</v>
+        <v>21.1503458318165</v>
       </c>
       <c r="G32" t="n">
-        <v>7.75112177351282</v>
+        <v>7.73571168547507</v>
       </c>
     </row>
     <row r="33">
@@ -3646,10 +3646,10 @@
         <v>9</v>
       </c>
       <c r="F33" t="n">
-        <v>16.360153256705</v>
+        <v>16.3351185921959</v>
       </c>
       <c r="G33" t="n">
-        <v>5.77793453129192</v>
+        <v>5.75289986678281</v>
       </c>
     </row>
     <row r="34">
@@ -3669,10 +3669,10 @@
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>20.2902445579145</v>
+        <v>20.2141900937082</v>
       </c>
       <c r="G34" t="n">
-        <v>8.2291349358293</v>
+        <v>8.15308047162293</v>
       </c>
     </row>
     <row r="35">
@@ -3692,10 +3692,10 @@
         <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>24.5854774156661</v>
+        <v>24.5130641330166</v>
       </c>
       <c r="G35" t="n">
-        <v>11.3843216918442</v>
+        <v>11.3119084091948</v>
       </c>
     </row>
     <row r="36">
@@ -3715,10 +3715,10 @@
         <v>9</v>
       </c>
       <c r="F36" t="n">
-        <v>20.7514198339886</v>
+        <v>20.6521739130435</v>
       </c>
       <c r="G36" t="n">
-        <v>6.15253923697372</v>
+        <v>6.05329331602855</v>
       </c>
     </row>
     <row r="37">
@@ -3761,10 +3761,10 @@
         <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>21.890243902439</v>
+        <v>21.7443973349485</v>
       </c>
       <c r="G38" t="n">
-        <v>7.6131719121184</v>
+        <v>7.46732534462789</v>
       </c>
     </row>
     <row r="39">
@@ -3784,10 +3784,10 @@
         <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>21.0870659285355</v>
+        <v>21.0976837865055</v>
       </c>
       <c r="G39" t="n">
-        <v>8.3672086764325</v>
+        <v>8.37782653440256</v>
       </c>
     </row>
     <row r="40">
@@ -3807,10 +3807,10 @@
         <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>16.4913471326773</v>
+        <v>16.4634146341463</v>
       </c>
       <c r="G40" t="n">
-        <v>6.74356253826694</v>
+        <v>6.71563003973598</v>
       </c>
     </row>
     <row r="41">
@@ -3830,10 +3830,10 @@
         <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>18.7548138639281</v>
+        <v>18.6876438986953</v>
       </c>
       <c r="G41" t="n">
-        <v>6.97172063207163</v>
+        <v>6.90455066683884</v>
       </c>
     </row>
     <row r="42">
@@ -3853,10 +3853,10 @@
         <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>28.1481481481481</v>
+        <v>28.0522430437252</v>
       </c>
       <c r="G42" t="n">
-        <v>13.0280155880819</v>
+        <v>12.9321104836589</v>
       </c>
     </row>
     <row r="43">
@@ -3899,10 +3899,10 @@
         <v>9</v>
       </c>
       <c r="F44" t="n">
-        <v>25.8366318819719</v>
+        <v>25.7902298850575</v>
       </c>
       <c r="G44" t="n">
-        <v>11.0583067588192</v>
+        <v>11.0119047619048</v>
       </c>
     </row>
     <row r="45">
@@ -3922,10 +3922,10 @@
         <v>9</v>
       </c>
       <c r="F45" t="n">
-        <v>21.0077806595035</v>
+        <v>21.0311572700297</v>
       </c>
       <c r="G45" t="n">
-        <v>9.2024773540186</v>
+        <v>9.22585396454475</v>
       </c>
     </row>
     <row r="46">
@@ -3945,10 +3945,10 @@
         <v>9</v>
       </c>
       <c r="F46" t="n">
-        <v>17.2477064220184</v>
+        <v>17.2371638141809</v>
       </c>
       <c r="G46" t="n">
-        <v>7.38855149244089</v>
+        <v>7.37800888460346</v>
       </c>
     </row>
     <row r="47">
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="F47" t="n">
-        <v>23.039834691769</v>
+        <v>23.1274487209034</v>
       </c>
       <c r="G47" t="n">
-        <v>7.84874807382246</v>
+        <v>7.93636210295687</v>
       </c>
     </row>
     <row r="48">
@@ -3991,10 +3991,10 @@
         <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>25.44474393531</v>
+        <v>25.3490870032223</v>
       </c>
       <c r="G48" t="n">
-        <v>11.2742370228676</v>
+        <v>11.1785800907799</v>
       </c>
     </row>
     <row r="49">
@@ -4014,10 +4014,10 @@
         <v>9</v>
       </c>
       <c r="F49" t="n">
-        <v>21.12</v>
+        <v>21.1764705882353</v>
       </c>
       <c r="G49" t="n">
-        <v>6.90567462520822</v>
+        <v>6.96214521344351</v>
       </c>
     </row>
     <row r="50">
@@ -4063,7 +4063,7 @@
         <v>24.5524296675192</v>
       </c>
       <c r="G51" t="n">
-        <v>6.00823556006684</v>
+        <v>6.00823556006685</v>
       </c>
     </row>
     <row r="52">
@@ -4083,10 +4083,10 @@
         <v>9</v>
       </c>
       <c r="F52" t="n">
-        <v>21.9095795131205</v>
+        <v>21.9234419487504</v>
       </c>
       <c r="G52" t="n">
-        <v>8.16688945464092</v>
+        <v>8.18075189027087</v>
       </c>
     </row>
     <row r="53">
@@ -4106,10 +4106,10 @@
         <v>9</v>
       </c>
       <c r="F53" t="n">
-        <v>20.1965435445612</v>
+        <v>20.0538358008075</v>
       </c>
       <c r="G53" t="n">
-        <v>7.88160410983708</v>
+        <v>7.73889636608344</v>
       </c>
     </row>
     <row r="54">
@@ -4129,10 +4129,10 @@
         <v>9</v>
       </c>
       <c r="F54" t="n">
-        <v>19.9165797705944</v>
+        <v>19.8441558441558</v>
       </c>
       <c r="G54" t="n">
-        <v>7.17836512666258</v>
+        <v>7.10594120022405</v>
       </c>
     </row>
     <row r="55">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="F55" t="n">
-        <v>20.1804368471035</v>
+        <v>20.09931425869</v>
       </c>
       <c r="G55" t="n">
-        <v>9.0935329497421</v>
+        <v>9.01241036132858</v>
       </c>
     </row>
     <row r="56">
@@ -4175,10 +4175,10 @@
         <v>9</v>
       </c>
       <c r="F56" t="n">
-        <v>22.2143988734378</v>
+        <v>22.2026741731175</v>
       </c>
       <c r="G56" t="n">
-        <v>9.34694596021827</v>
+        <v>9.33522125989802</v>
       </c>
     </row>
     <row r="57">
@@ -4198,10 +4198,10 @@
         <v>9</v>
       </c>
       <c r="F57" t="n">
-        <v>23.2313389202884</v>
+        <v>23.1456310679612</v>
       </c>
       <c r="G57" t="n">
-        <v>9.48058393740139</v>
+        <v>9.39487608507411</v>
       </c>
     </row>
     <row r="58">
@@ -4221,10 +4221,10 @@
         <v>9</v>
       </c>
       <c r="F58" t="n">
-        <v>18.4277530235519</v>
+        <v>18.3634633682207</v>
       </c>
       <c r="G58" t="n">
-        <v>6.89909060316971</v>
+        <v>6.83480094783858</v>
       </c>
     </row>
     <row r="59">
@@ -4244,10 +4244,10 @@
         <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>18.9467969598263</v>
+        <v>18.8955062263129</v>
       </c>
       <c r="G59" t="n">
-        <v>6.31100507875137</v>
+        <v>6.25971434523804</v>
       </c>
     </row>
     <row r="60">
@@ -4290,10 +4290,10 @@
         <v>9</v>
       </c>
       <c r="F61" t="n">
-        <v>18.8218793828892</v>
+        <v>18.8113260442949</v>
       </c>
       <c r="G61" t="n">
-        <v>7.06596745029882</v>
+        <v>7.05541411170455</v>
       </c>
     </row>
     <row r="62">
@@ -4313,10 +4313,10 @@
         <v>9</v>
       </c>
       <c r="F62" t="n">
-        <v>23.7406216505895</v>
+        <v>23.563829787234</v>
       </c>
       <c r="G62" t="n">
-        <v>10.5461772061451</v>
+        <v>10.3693853427896</v>
       </c>
     </row>
     <row r="63">
@@ -4336,10 +4336,10 @@
         <v>9</v>
       </c>
       <c r="F63" t="n">
-        <v>22.3174603174603</v>
+        <v>22.2962258166825</v>
       </c>
       <c r="G63" t="n">
-        <v>9.11233211233211</v>
+        <v>9.09109761155432</v>
       </c>
     </row>
     <row r="64">
@@ -4359,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="F64" t="n">
-        <v>24.6036778693722</v>
+        <v>24.5414294750158</v>
       </c>
       <c r="G64" t="n">
-        <v>11.2746791697623</v>
+        <v>11.2124307754059</v>
       </c>
     </row>
     <row r="65">
@@ -4382,10 +4382,10 @@
         <v>9</v>
       </c>
       <c r="F65" t="n">
-        <v>25.2408001975796</v>
+        <v>25.2595155709343</v>
       </c>
       <c r="G65" t="n">
-        <v>9.70981536857476</v>
+        <v>9.72853074192937</v>
       </c>
     </row>
     <row r="66">
@@ -4405,10 +4405,10 @@
         <v>9</v>
       </c>
       <c r="F66" t="n">
-        <v>25.8879242304657</v>
+        <v>25.8267716535433</v>
       </c>
       <c r="G66" t="n">
-        <v>10.3548650719715</v>
+        <v>10.2937124950492</v>
       </c>
     </row>
     <row r="67">
@@ -4428,10 +4428,10 @@
         <v>9</v>
       </c>
       <c r="F67" t="n">
-        <v>29.5190713101161</v>
+        <v>29.3521790341578</v>
       </c>
       <c r="G67" t="n">
-        <v>11.1755753751567</v>
+        <v>11.0086830991985</v>
       </c>
     </row>
     <row r="68">
@@ -4451,10 +4451,10 @@
         <v>9</v>
       </c>
       <c r="F68" t="n">
-        <v>25.5208333333333</v>
+        <v>25.4178674351585</v>
       </c>
       <c r="G68" t="n">
-        <v>9.40884178552562</v>
+        <v>9.30587588735079</v>
       </c>
     </row>
     <row r="69">
@@ -4474,10 +4474,10 @@
         <v>9</v>
       </c>
       <c r="F69" t="n">
-        <v>27.0290394638868</v>
+        <v>26.9088213491475</v>
       </c>
       <c r="G69" t="n">
-        <v>10.3924842094454</v>
+        <v>10.2722660947061</v>
       </c>
     </row>
     <row r="70">
@@ -4497,10 +4497,10 @@
         <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>22.0183486238532</v>
+        <v>21.9512195121951</v>
       </c>
       <c r="G70" t="n">
-        <v>10.3300369355415</v>
+        <v>10.2629078238834</v>
       </c>
     </row>
     <row r="71">
@@ -4520,10 +4520,10 @@
         <v>9</v>
       </c>
       <c r="F71" t="n">
-        <v>25.873320537428</v>
+        <v>25.8534714230917</v>
       </c>
       <c r="G71" t="n">
-        <v>10.2058545102498</v>
+        <v>10.1860053959134</v>
       </c>
     </row>
     <row r="72">
@@ -4543,10 +4543,10 @@
         <v>9</v>
       </c>
       <c r="F72" t="n">
-        <v>22.7521929824561</v>
+        <v>22.7771679473106</v>
       </c>
       <c r="G72" t="n">
-        <v>7.36324146047192</v>
+        <v>7.38821642532643</v>
       </c>
     </row>
     <row r="73">
@@ -4566,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="F73" t="n">
-        <v>27.7453433416736</v>
+        <v>27.6454293628809</v>
       </c>
       <c r="G73" t="n">
-        <v>7.36766577684837</v>
+        <v>7.26775179805563</v>
       </c>
     </row>
     <row r="74">
@@ -4589,10 +4589,10 @@
         <v>9</v>
       </c>
       <c r="F74" t="n">
-        <v>27.2321428571429</v>
+        <v>27.1261812117843</v>
       </c>
       <c r="G74" t="n">
-        <v>9.96259793298883</v>
+        <v>9.8566362876303</v>
       </c>
     </row>
     <row r="75">
@@ -4612,10 +4612,10 @@
         <v>9</v>
       </c>
       <c r="F75" t="n">
-        <v>24.7889485801995</v>
+        <v>24.6564885496183</v>
       </c>
       <c r="G75" t="n">
-        <v>6.29226471874044</v>
+        <v>6.15980468815922</v>
       </c>
     </row>
     <row r="76">
@@ -4635,10 +4635,10 @@
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>25.2119841718485</v>
+        <v>25.1693002257336</v>
       </c>
       <c r="G76" t="n">
-        <v>5.83559218966587</v>
+        <v>5.792908243551</v>
       </c>
     </row>
     <row r="77">
@@ -4658,10 +4658,10 @@
         <v>9</v>
       </c>
       <c r="F77" t="n">
-        <v>25.1102855816113</v>
+        <v>25.0405186385737</v>
       </c>
       <c r="G77" t="n">
-        <v>9.56894466713609</v>
+        <v>9.4991777240985</v>
       </c>
     </row>
     <row r="78">
@@ -4681,10 +4681,10 @@
         <v>9</v>
       </c>
       <c r="F78" t="n">
-        <v>26.2323943661972</v>
+        <v>26.2786596119929</v>
       </c>
       <c r="G78" t="n">
-        <v>6.45838306676215</v>
+        <v>6.50464831255792</v>
       </c>
     </row>
     <row r="79">
@@ -4704,10 +4704,10 @@
         <v>9</v>
       </c>
       <c r="F79" t="n">
-        <v>29.5081967213115</v>
+        <v>29.5187165775401</v>
       </c>
       <c r="G79" t="n">
-        <v>9.5748880884845</v>
+        <v>9.58540794471314</v>
       </c>
     </row>
     <row r="80">
@@ -4727,10 +4727,10 @@
         <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>24.4444444444444</v>
+        <v>24.3269230769231</v>
       </c>
       <c r="G80" t="n">
-        <v>11.8580673467149</v>
+        <v>11.7405459791936</v>
       </c>
     </row>
     <row r="81">
@@ -4750,10 +4750,10 @@
         <v>9</v>
       </c>
       <c r="F81" t="n">
-        <v>24.4420051225759</v>
+        <v>24.2292346753718</v>
       </c>
       <c r="G81" t="n">
-        <v>10.1562908368616</v>
+        <v>9.94352038965749</v>
       </c>
     </row>
     <row r="82">
@@ -4773,10 +4773,10 @@
         <v>9</v>
       </c>
       <c r="F82" t="n">
-        <v>20.8688245315162</v>
+        <v>20.6751054852321</v>
       </c>
       <c r="G82" t="n">
-        <v>9.25833764013041</v>
+        <v>9.0646185938463</v>
       </c>
     </row>
     <row r="83">
@@ -4796,10 +4796,10 @@
         <v>9</v>
       </c>
       <c r="F83" t="n">
-        <v>19.1148775894539</v>
+        <v>19.1826128041578</v>
       </c>
       <c r="G83" t="n">
-        <v>5.51838636138369</v>
+        <v>5.58612157608763</v>
       </c>
     </row>
     <row r="84">
@@ -4819,10 +4819,10 @@
         <v>9</v>
       </c>
       <c r="F84" t="n">
-        <v>19.3011647254576</v>
+        <v>19.2371475953566</v>
       </c>
       <c r="G84" t="n">
-        <v>6.57027212508151</v>
+        <v>6.50625499498049</v>
       </c>
     </row>
     <row r="85">
@@ -4842,10 +4842,10 @@
         <v>9</v>
       </c>
       <c r="F85" t="n">
-        <v>24.1758241758242</v>
+        <v>24.1077019411396</v>
       </c>
       <c r="G85" t="n">
-        <v>9.31726029643344</v>
+        <v>9.2491380617489</v>
       </c>
     </row>
     <row r="86">
@@ -4865,10 +4865,10 @@
         <v>9</v>
       </c>
       <c r="F86" t="n">
-        <v>22.6724137931034</v>
+        <v>22.5945017182131</v>
       </c>
       <c r="G86" t="n">
-        <v>10.4354553492485</v>
+        <v>10.3575432743581</v>
       </c>
     </row>
     <row r="87">
@@ -4888,10 +4888,10 @@
         <v>9</v>
       </c>
       <c r="F87" t="n">
-        <v>19.9072422404567</v>
+        <v>19.878874242964</v>
       </c>
       <c r="G87" t="n">
-        <v>6.9375890612659</v>
+        <v>6.90922106377326</v>
       </c>
     </row>
     <row r="88">
@@ -4911,10 +4911,10 @@
         <v>9</v>
       </c>
       <c r="F88" t="n">
-        <v>17.2924901185771</v>
+        <v>17.2074729596854</v>
       </c>
       <c r="G88" t="n">
-        <v>6.31209796171433</v>
+        <v>6.22708080282261</v>
       </c>
     </row>
     <row r="89">
@@ -4934,10 +4934,10 @@
         <v>9</v>
       </c>
       <c r="F89" t="n">
-        <v>19.9730094466937</v>
+        <v>20.0542005420054</v>
       </c>
       <c r="G89" t="n">
-        <v>7.72446228531681</v>
+        <v>7.80565338062858</v>
       </c>
     </row>
     <row r="90">
@@ -4957,10 +4957,10 @@
         <v>9</v>
       </c>
       <c r="F90" t="n">
-        <v>15.5213122902945</v>
+        <v>15.5813373253493</v>
       </c>
       <c r="G90" t="n">
-        <v>4.17968020177446</v>
+        <v>4.23970523682925</v>
       </c>
     </row>
     <row r="91">
@@ -4980,10 +4980,10 @@
         <v>9</v>
       </c>
       <c r="F91" t="n">
-        <v>28.0734632683658</v>
+        <v>28.1367392937641</v>
       </c>
       <c r="G91" t="n">
-        <v>11.5338291220244</v>
+        <v>11.5971051474226</v>
       </c>
     </row>
     <row r="92">
@@ -5003,10 +5003,10 @@
         <v>9</v>
       </c>
       <c r="F92" t="n">
-        <v>22.574508560558</v>
+        <v>22.5494853523357</v>
       </c>
       <c r="G92" t="n">
-        <v>7.30615569195839</v>
+        <v>7.28113248373608</v>
       </c>
     </row>
     <row r="93">
@@ -5026,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="F93" t="n">
-        <v>31.7391304347826</v>
+        <v>31.7851959361393</v>
       </c>
       <c r="G93" t="n">
-        <v>9.4702228717574</v>
+        <v>9.51628837311412</v>
       </c>
     </row>
     <row r="94">
@@ -5049,10 +5049,10 @@
         <v>9</v>
       </c>
       <c r="F94" t="n">
-        <v>28.1618349792928</v>
+        <v>28.1081081081081</v>
       </c>
       <c r="G94" t="n">
-        <v>9.31843017097568</v>
+        <v>9.26470329979102</v>
       </c>
     </row>
     <row r="95">
@@ -5072,10 +5072,10 @@
         <v>9</v>
       </c>
       <c r="F95" t="n">
-        <v>22.2589167767503</v>
+        <v>22.317880794702</v>
       </c>
       <c r="G95" t="n">
-        <v>8.62842582067798</v>
+        <v>8.68738983862963</v>
       </c>
     </row>
     <row r="96">
@@ -5095,10 +5095,10 @@
         <v>9</v>
       </c>
       <c r="F96" t="n">
-        <v>25.0156739811912</v>
+        <v>24.9219237976265</v>
       </c>
       <c r="G96" t="n">
-        <v>7.62161958523929</v>
+        <v>7.52786940167455</v>
       </c>
     </row>
     <row r="97">
@@ -5118,10 +5118,10 @@
         <v>9</v>
       </c>
       <c r="F97" t="n">
-        <v>16.8965517241379</v>
+        <v>16.8849069607167</v>
       </c>
       <c r="G97" t="n">
-        <v>5.51326642154427</v>
+        <v>5.50162165812309</v>
       </c>
     </row>
     <row r="98">
@@ -5141,10 +5141,10 @@
         <v>9</v>
       </c>
       <c r="F98" t="n">
-        <v>21.0129946839929</v>
+        <v>20.9603770805715</v>
       </c>
       <c r="G98" t="n">
-        <v>7.47292713717068</v>
+        <v>7.42030953374928</v>
       </c>
     </row>
     <row r="99">
@@ -5164,10 +5164,10 @@
         <v>9</v>
       </c>
       <c r="F99" t="n">
-        <v>24.6855910887531</v>
+        <v>24.6236559139785</v>
       </c>
       <c r="G99" t="n">
-        <v>10.1189486998238</v>
+        <v>10.0570135250491</v>
       </c>
     </row>
     <row r="100">
@@ -5187,10 +5187,10 @@
         <v>9</v>
       </c>
       <c r="F100" t="n">
-        <v>18.6152099886493</v>
+        <v>18.5310734463277</v>
       </c>
       <c r="G100" t="n">
-        <v>6.53846055298335</v>
+        <v>6.45432401066177</v>
       </c>
     </row>
     <row r="101">
@@ -5210,10 +5210,10 @@
         <v>9</v>
       </c>
       <c r="F101" t="n">
-        <v>23.8519533927347</v>
+        <v>23.4817813765182</v>
       </c>
       <c r="G101" t="n">
-        <v>10.9552619680217</v>
+        <v>10.5850899518052</v>
       </c>
     </row>
     <row r="102">
@@ -5233,10 +5233,10 @@
         <v>9</v>
       </c>
       <c r="F102" t="n">
-        <v>18.236914600551</v>
+        <v>18.2570325427468</v>
       </c>
       <c r="G102" t="n">
-        <v>7.65059538230992</v>
+        <v>7.67071332450579</v>
       </c>
     </row>
     <row r="103">
@@ -5256,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>26.8606603245663</v>
+        <v>26.7707752370329</v>
       </c>
       <c r="G103" t="n">
-        <v>11.1945654131884</v>
+        <v>11.104680325655</v>
       </c>
     </row>
     <row r="104">
@@ -5279,10 +5279,10 @@
         <v>9</v>
       </c>
       <c r="F104" t="n">
-        <v>26.1835493255752</v>
+        <v>26.1558784676354</v>
       </c>
       <c r="G104" t="n">
-        <v>10.7827054437187</v>
+        <v>10.7550345857789</v>
       </c>
     </row>
     <row r="105">
@@ -5302,10 +5302,10 @@
         <v>9</v>
       </c>
       <c r="F105" t="n">
-        <v>24.6198109330045</v>
+        <v>24.5995893223819</v>
       </c>
       <c r="G105" t="n">
-        <v>10.0162510624544</v>
+        <v>9.99602945183176</v>
       </c>
     </row>
     <row r="106">
@@ -5325,10 +5325,10 @@
         <v>9</v>
       </c>
       <c r="F106" t="n">
-        <v>21.6625572384642</v>
+        <v>21.578947368421</v>
       </c>
       <c r="G106" t="n">
-        <v>8.7088442847513</v>
+        <v>8.6252344147081</v>
       </c>
     </row>
     <row r="107">
@@ -5348,10 +5348,10 @@
         <v>9</v>
       </c>
       <c r="F107" t="n">
-        <v>25.045045045045</v>
+        <v>25.2268602540835</v>
       </c>
       <c r="G107" t="n">
-        <v>7.74055253256584</v>
+        <v>7.92236774160428</v>
       </c>
     </row>
     <row r="108">
@@ -5371,10 +5371,10 @@
         <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>23.7427864798021</v>
+        <v>23.6259228876128</v>
       </c>
       <c r="G108" t="n">
-        <v>7.94619464858765</v>
+        <v>7.8293310563983</v>
       </c>
     </row>
     <row r="109">
@@ -5394,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="F109" t="n">
-        <v>23.0269489894129</v>
+        <v>23.0380356283101</v>
       </c>
       <c r="G109" t="n">
-        <v>6.64721460672721</v>
+        <v>6.65830124562438</v>
       </c>
     </row>
     <row r="110">
@@ -5417,10 +5417,10 @@
         <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>23.3752620545073</v>
+        <v>23.326359832636</v>
       </c>
       <c r="G110" t="n">
-        <v>8.29201034050146</v>
+        <v>8.24310811863011</v>
       </c>
     </row>
     <row r="111">
@@ -5440,10 +5440,10 @@
         <v>9</v>
       </c>
       <c r="F111" t="n">
-        <v>23.8484515013363</v>
+        <v>23.7550892577513</v>
       </c>
       <c r="G111" t="n">
-        <v>6.64068481632723</v>
+        <v>6.54732257274229</v>
       </c>
     </row>
     <row r="112">
@@ -5463,10 +5463,10 @@
         <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>23.1501057082452</v>
+        <v>23.2978723404255</v>
       </c>
       <c r="G112" t="n">
-        <v>6.27510570824525</v>
+        <v>6.42287234042553</v>
       </c>
     </row>
     <row r="113">
@@ -5486,10 +5486,10 @@
         <v>9</v>
       </c>
       <c r="F113" t="n">
-        <v>26.5051395007342</v>
+        <v>26.4468864468864</v>
       </c>
       <c r="G113" t="n">
-        <v>6.78373187610079</v>
+        <v>6.72547882225301</v>
       </c>
     </row>
     <row r="114">
@@ -5509,10 +5509,10 @@
         <v>9</v>
       </c>
       <c r="F114" t="n">
-        <v>24.8618784530387</v>
+        <v>24.7660979636764</v>
       </c>
       <c r="G114" t="n">
-        <v>4.98680747064231</v>
+        <v>4.89102698128003</v>
       </c>
     </row>
     <row r="115">
@@ -5532,10 +5532,10 @@
         <v>9</v>
       </c>
       <c r="F115" t="n">
-        <v>22.7501397428731</v>
+        <v>22.7628635346756</v>
       </c>
       <c r="G115" t="n">
-        <v>7.79412801266783</v>
+        <v>7.80685180447033</v>
       </c>
     </row>
     <row r="116">
@@ -5555,10 +5555,10 @@
         <v>9</v>
       </c>
       <c r="F116" t="n">
-        <v>27.6607239330092</v>
+        <v>27.6159654800432</v>
       </c>
       <c r="G116" t="n">
-        <v>10.0613727570157</v>
+        <v>10.0166143040496</v>
       </c>
     </row>
     <row r="117">
@@ -5578,10 +5578,10 @@
         <v>9</v>
       </c>
       <c r="F117" t="n">
-        <v>29.0268456375839</v>
+        <v>28.8173237090505</v>
       </c>
       <c r="G117" t="n">
-        <v>11.9955032366377</v>
+        <v>11.7859813081043</v>
       </c>
     </row>
     <row r="118">
@@ -5601,10 +5601,10 @@
         <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>26.7613038906414</v>
+        <v>26.6074228959749</v>
       </c>
       <c r="G118" t="n">
-        <v>7.32117947384516</v>
+        <v>7.16729847917864</v>
       </c>
     </row>
     <row r="119">
@@ -5624,10 +5624,10 @@
         <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>26.1590524534687</v>
+        <v>26.0884238947013</v>
       </c>
       <c r="G119" t="n">
-        <v>8.82571912013536</v>
+        <v>8.75509056136798</v>
       </c>
     </row>
     <row r="120">
@@ -5647,10 +5647,10 @@
         <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>27.4616079494128</v>
+        <v>27.4740171712607</v>
       </c>
       <c r="G120" t="n">
-        <v>9.64688110855772</v>
+        <v>9.65929033040563</v>
       </c>
     </row>
     <row r="121">
@@ -5670,10 +5670,10 @@
         <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>22.7090178897408</v>
+        <v>22.7588730332967</v>
       </c>
       <c r="G121" t="n">
-        <v>6.77847806339122</v>
+        <v>6.82833320694718</v>
       </c>
     </row>
     <row r="122">
@@ -5693,10 +5693,10 @@
         <v>9</v>
       </c>
       <c r="F122" t="n">
-        <v>27.7189068600112</v>
+        <v>27.4737423991155</v>
       </c>
       <c r="G122" t="n">
-        <v>8.78126251820977</v>
+        <v>8.53609805731415</v>
       </c>
     </row>
     <row r="123">
@@ -5716,10 +5716,10 @@
         <v>9</v>
       </c>
       <c r="F123" t="n">
-        <v>27.2163349702766</v>
+        <v>27.1251931993818</v>
       </c>
       <c r="G123" t="n">
-        <v>9.41995365782719</v>
+        <v>9.3288118869324</v>
       </c>
     </row>
     <row r="124">
@@ -5739,10 +5739,10 @@
         <v>9</v>
       </c>
       <c r="F124" t="n">
-        <v>23.8225806451613</v>
+        <v>23.7116712152834</v>
       </c>
       <c r="G124" t="n">
-        <v>8.1279386347298</v>
+        <v>8.01702920485187</v>
       </c>
     </row>
     <row r="125">
@@ -5762,10 +5762,10 @@
         <v>9</v>
       </c>
       <c r="F125" t="n">
-        <v>25.8214285714286</v>
+        <v>25.6292095001772</v>
       </c>
       <c r="G125" t="n">
-        <v>12.495164874009</v>
+        <v>12.3029458027577</v>
       </c>
     </row>
     <row r="126">
@@ -5785,10 +5785,10 @@
         <v>9</v>
       </c>
       <c r="F126" t="n">
-        <v>16.9543429844098</v>
+        <v>16.8604651162791</v>
       </c>
       <c r="G126" t="n">
-        <v>5.49899281518304</v>
+        <v>5.40511494705231</v>
       </c>
     </row>
     <row r="127">
@@ -5808,10 +5808,10 @@
         <v>9</v>
       </c>
       <c r="F127" t="n">
-        <v>22.3247232472325</v>
+        <v>22.2315015867713</v>
       </c>
       <c r="G127" t="n">
-        <v>7.97154395898825</v>
+        <v>7.87832229852711</v>
       </c>
     </row>
     <row r="128">
@@ -5831,10 +5831,10 @@
         <v>9</v>
       </c>
       <c r="F128" t="n">
-        <v>21.119344773791</v>
+        <v>21.0536547433904</v>
       </c>
       <c r="G128" t="n">
-        <v>6.83920431339298</v>
+        <v>6.77351428299238</v>
       </c>
     </row>
     <row r="129">
@@ -5854,10 +5854,10 @@
         <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>18.7863674147963</v>
+        <v>18.801996672213</v>
       </c>
       <c r="G129" t="n">
-        <v>4.71601565600237</v>
+        <v>4.73164491341901</v>
       </c>
     </row>
     <row r="130">
@@ -5877,10 +5877,10 @@
         <v>9</v>
       </c>
       <c r="F130" t="n">
-        <v>24.8631074606434</v>
+        <v>24.7867621972023</v>
       </c>
       <c r="G130" t="n">
-        <v>9.2212155687515</v>
+        <v>9.14487030531042</v>
       </c>
     </row>
     <row r="131">
@@ -5900,10 +5900,10 @@
         <v>9</v>
       </c>
       <c r="F131" t="n">
-        <v>18.5233841303205</v>
+        <v>18.4410149097567</v>
       </c>
       <c r="G131" t="n">
-        <v>5.30871314865927</v>
+        <v>5.22634392809547</v>
       </c>
     </row>
     <row r="132">
@@ -5923,10 +5923,10 @@
         <v>9</v>
       </c>
       <c r="F132" t="n">
-        <v>24.5501285347044</v>
+        <v>24.4401791426743</v>
       </c>
       <c r="G132" t="n">
-        <v>5.49480663240738</v>
+        <v>5.38485724037736</v>
       </c>
     </row>
     <row r="133">
@@ -5946,10 +5946,10 @@
         <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>20.1155462184874</v>
+        <v>20.0944386149003</v>
       </c>
       <c r="G133" t="n">
-        <v>7.07906553179212</v>
+        <v>7.05795792820504</v>
       </c>
     </row>
     <row r="134">
@@ -5969,10 +5969,10 @@
         <v>9</v>
       </c>
       <c r="F134" t="n">
-        <v>21.6714461286358</v>
+        <v>21.5303215303215</v>
       </c>
       <c r="G134" t="n">
-        <v>6.15199337104709</v>
+        <v>6.01086877273281</v>
       </c>
     </row>
     <row r="135">
@@ -5992,10 +5992,10 @@
         <v>9</v>
       </c>
       <c r="F135" t="n">
-        <v>30.8868501529052</v>
+        <v>30.9026007139215</v>
       </c>
       <c r="G135" t="n">
-        <v>10.8354362711571</v>
+        <v>10.8511868321734</v>
       </c>
     </row>
     <row r="136">
@@ -6015,10 +6015,10 @@
         <v>9</v>
       </c>
       <c r="F136" t="n">
-        <v>15.6137400912803</v>
+        <v>15.5576831019627</v>
       </c>
       <c r="G136" t="n">
-        <v>4.08622585978127</v>
+        <v>4.03016887046361</v>
       </c>
     </row>
     <row r="137">
@@ -6038,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="F137" t="n">
-        <v>19.6632996632997</v>
+        <v>19.5666741121287</v>
       </c>
       <c r="G137" t="n">
-        <v>7.88272412373132</v>
+        <v>7.78609857256031</v>
       </c>
     </row>
     <row r="138">
@@ -6061,10 +6061,10 @@
         <v>9</v>
       </c>
       <c r="F138" t="n">
-        <v>24.8407643312102</v>
+        <v>24.8012718600954</v>
       </c>
       <c r="G138" t="n">
-        <v>5.90192866429788</v>
+        <v>5.86243619318308</v>
       </c>
     </row>
     <row r="139">
@@ -6084,10 +6084,10 @@
         <v>9</v>
       </c>
       <c r="F139" t="n">
-        <v>18.4578642101672</v>
+        <v>18.4767759562842</v>
       </c>
       <c r="G139" t="n">
-        <v>3.51184531677987</v>
+        <v>3.53075706289684</v>
       </c>
     </row>
     <row r="140">
@@ -6107,10 +6107,10 @@
         <v>9</v>
       </c>
       <c r="F140" t="n">
-        <v>19.9596295416766</v>
+        <v>20.0047602046888</v>
       </c>
       <c r="G140" t="n">
-        <v>5.62559641828025</v>
+        <v>5.67072708129249</v>
       </c>
     </row>
     <row r="141">
@@ -6130,10 +6130,10 @@
         <v>9</v>
       </c>
       <c r="F141" t="n">
-        <v>10.0945325888662</v>
+        <v>10.0792095603455</v>
       </c>
       <c r="G141" t="n">
-        <v>2.57787931393809</v>
+        <v>2.56255628541747</v>
       </c>
     </row>
     <row r="142">
@@ -6153,10 +6153,10 @@
         <v>9</v>
       </c>
       <c r="F142" t="n">
-        <v>31.4008394543547</v>
+        <v>31.3597065758449</v>
       </c>
       <c r="G142" t="n">
-        <v>11.0261321944015</v>
+        <v>10.9849993158917</v>
       </c>
     </row>
     <row r="143">
@@ -6176,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="F143" t="n">
-        <v>25.9487852921865</v>
+        <v>26.1202908129544</v>
       </c>
       <c r="G143" t="n">
-        <v>6.62117046097452</v>
+        <v>6.79267598174244</v>
       </c>
     </row>
     <row r="144">
@@ -6199,10 +6199,10 @@
         <v>9</v>
       </c>
       <c r="F144" t="n">
-        <v>27.8755074424898</v>
+        <v>28.0081577158396</v>
       </c>
       <c r="G144" t="n">
-        <v>11.1153391395445</v>
+        <v>11.2479894128943</v>
       </c>
     </row>
     <row r="145">
@@ -6222,10 +6222,10 @@
         <v>9</v>
       </c>
       <c r="F145" t="n">
-        <v>23.3949398887493</v>
+        <v>23.3915820445656</v>
       </c>
       <c r="G145" t="n">
-        <v>6.7524528421172</v>
+        <v>6.74909499793352</v>
       </c>
     </row>
     <row r="146">
@@ -6245,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="F146" t="n">
-        <v>25.7521773555028</v>
+        <v>25.716544771694</v>
       </c>
       <c r="G146" t="n">
-        <v>8.24517455438232</v>
+        <v>8.20954197057356</v>
       </c>
     </row>
     <row r="147">
@@ -6268,10 +6268,10 @@
         <v>9</v>
       </c>
       <c r="F147" t="n">
-        <v>24.3545010467551</v>
+        <v>24.3942218080149</v>
       </c>
       <c r="G147" t="n">
-        <v>8.0346506843515</v>
+        <v>8.07437144561136</v>
       </c>
     </row>
     <row r="148">
@@ -6291,10 +6291,10 @@
         <v>9</v>
       </c>
       <c r="F148" t="n">
-        <v>29.546792230724</v>
+        <v>29.4600938967136</v>
       </c>
       <c r="G148" t="n">
-        <v>7.91075192248448</v>
+        <v>7.82405358847413</v>
       </c>
     </row>
     <row r="149">
@@ -6314,10 +6314,10 @@
         <v>9</v>
       </c>
       <c r="F149" t="n">
-        <v>23.4165067178503</v>
+        <v>23.2824427480916</v>
       </c>
       <c r="G149" t="n">
-        <v>6.8405542190873</v>
+        <v>6.70649024932862</v>
       </c>
     </row>
     <row r="150">
@@ -6337,10 +6337,10 @@
         <v>9</v>
       </c>
       <c r="F150" t="n">
-        <v>22.3477943857091</v>
+        <v>22.2747093023256</v>
       </c>
       <c r="G150" t="n">
-        <v>3.63121684560213</v>
+        <v>3.55813176221863</v>
       </c>
     </row>
     <row r="151">
@@ -6360,10 +6360,10 @@
         <v>9</v>
       </c>
       <c r="F151" t="n">
-        <v>22.4032586558045</v>
+        <v>22.3728813559322</v>
       </c>
       <c r="G151" t="n">
-        <v>8.1542214285901</v>
+        <v>8.12384412871782</v>
       </c>
     </row>
     <row r="152">
@@ -6406,10 +6406,10 @@
         <v>9</v>
       </c>
       <c r="F153" t="n">
-        <v>27.5716014521985</v>
+        <v>27.5271848570278</v>
       </c>
       <c r="G153" t="n">
-        <v>6.41383545138314</v>
+        <v>6.36941885621246</v>
       </c>
     </row>
     <row r="154">
@@ -6429,10 +6429,10 @@
         <v>9</v>
       </c>
       <c r="F154" t="n">
-        <v>28.8779458318677</v>
+        <v>28.8475052705552</v>
       </c>
       <c r="G154" t="n">
-        <v>8.5282954822174</v>
+        <v>8.49785492090481</v>
       </c>
     </row>
     <row r="155">
@@ -6452,10 +6452,10 @@
         <v>9</v>
       </c>
       <c r="F155" t="n">
-        <v>24.7505755947813</v>
+        <v>24.7221157531621</v>
       </c>
       <c r="G155" t="n">
-        <v>7.21002485920979</v>
+        <v>7.18156501759065</v>
       </c>
     </row>
     <row r="156">
@@ -6475,10 +6475,10 @@
         <v>9</v>
       </c>
       <c r="F156" t="n">
-        <v>21.2239583333333</v>
+        <v>21.1743309950637</v>
       </c>
       <c r="G156" t="n">
-        <v>5.50154033387549</v>
+        <v>5.45191299560581</v>
       </c>
     </row>
     <row r="157">
@@ -6498,10 +6498,10 @@
         <v>9</v>
       </c>
       <c r="F157" t="n">
-        <v>27.66581165262</v>
+        <v>27.5346462436178</v>
       </c>
       <c r="G157" t="n">
-        <v>5.2331823736688</v>
+        <v>5.1020169646666</v>
       </c>
     </row>
     <row r="158">
@@ -6521,10 +6521,10 @@
         <v>9</v>
       </c>
       <c r="F158" t="n">
-        <v>30.1506186121571</v>
+        <v>30.1668460710441</v>
       </c>
       <c r="G158" t="n">
-        <v>7.33273068112259</v>
+        <v>7.34895814000965</v>
       </c>
     </row>
     <row r="159">
@@ -6544,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="F159" t="n">
-        <v>19.8090417577361</v>
+        <v>19.8181608930832</v>
       </c>
       <c r="G159" t="n">
-        <v>4.50223123851831</v>
+        <v>4.51135037386541</v>
       </c>
     </row>
     <row r="160">
@@ -6567,10 +6567,10 @@
         <v>9</v>
       </c>
       <c r="F160" t="n">
-        <v>28.1830695113558</v>
+        <v>28.2316442605998</v>
       </c>
       <c r="G160" t="n">
-        <v>3.8614955629162</v>
+        <v>3.91007031216017</v>
       </c>
     </row>
     <row r="161">
@@ -6590,10 +6590,10 @@
         <v>9</v>
       </c>
       <c r="F161" t="n">
-        <v>18.9327974994418</v>
+        <v>18.8507280204513</v>
       </c>
       <c r="G161" t="n">
-        <v>4.32745962323514</v>
+        <v>4.24539014424456</v>
       </c>
     </row>
     <row r="162">
@@ -6613,10 +6613,10 @@
         <v>9</v>
       </c>
       <c r="F162" t="n">
-        <v>18.7655860349127</v>
+        <v>18.7072715972654</v>
       </c>
       <c r="G162" t="n">
-        <v>4.92141346569185</v>
+        <v>4.86309902804452</v>
       </c>
     </row>
     <row r="163">
@@ -6636,10 +6636,10 @@
         <v>9</v>
       </c>
       <c r="F163" t="n">
-        <v>29.7628781684383</v>
+        <v>29.8116298116298</v>
       </c>
       <c r="G163" t="n">
-        <v>8.73265254051149</v>
+        <v>8.78140418370304</v>
       </c>
     </row>
     <row r="164">
@@ -6659,10 +6659,10 @@
         <v>9</v>
       </c>
       <c r="F164" t="n">
-        <v>28.4239130434783</v>
+        <v>28.4084736556219</v>
       </c>
       <c r="G164" t="n">
-        <v>10.5708705635701</v>
+        <v>10.5554311757138</v>
       </c>
     </row>
     <row r="165">
@@ -6682,10 +6682,10 @@
         <v>9</v>
       </c>
       <c r="F165" t="n">
-        <v>26.4971994829815</v>
+        <v>26.360908701243</v>
       </c>
       <c r="G165" t="n">
-        <v>11.2399287894692</v>
+        <v>11.1036380077307</v>
       </c>
     </row>
     <row r="166">
@@ -6705,10 +6705,10 @@
         <v>9</v>
       </c>
       <c r="F166" t="n">
-        <v>29.0297642056436</v>
+        <v>28.7629260819609</v>
       </c>
       <c r="G166" t="n">
-        <v>13.1721590276501</v>
+        <v>12.9053209039674</v>
       </c>
     </row>
     <row r="167">
@@ -6728,10 +6728,10 @@
         <v>9</v>
       </c>
       <c r="F167" t="n">
-        <v>26.5917209497794</v>
+        <v>26.4444676627312</v>
       </c>
       <c r="G167" t="n">
-        <v>10.7882680945337</v>
+        <v>10.6410148074855</v>
       </c>
     </row>
     <row r="168">
@@ -6751,10 +6751,10 @@
         <v>9</v>
       </c>
       <c r="F168" t="n">
-        <v>29.984544049459</v>
+        <v>29.8806314978822</v>
       </c>
       <c r="G168" t="n">
-        <v>8.03135599457607</v>
+        <v>7.9274434429992</v>
       </c>
     </row>
     <row r="169">
@@ -6774,10 +6774,10 @@
         <v>9</v>
       </c>
       <c r="F169" t="n">
-        <v>29.8983050847458</v>
+        <v>29.763779527559</v>
       </c>
       <c r="G169" t="n">
-        <v>12.3790000654407</v>
+        <v>12.244474508254</v>
       </c>
     </row>
     <row r="170">
@@ -6797,10 +6797,10 @@
         <v>9</v>
       </c>
       <c r="F170" t="n">
-        <v>28.539233763573</v>
+        <v>28.4750613246116</v>
       </c>
       <c r="G170" t="n">
-        <v>13.132321834922</v>
+        <v>13.0681493959606</v>
       </c>
     </row>
     <row r="171">
@@ -6820,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="F171" t="n">
-        <v>26.0535307517084</v>
+        <v>25.9721827987511</v>
       </c>
       <c r="G171" t="n">
-        <v>8.43406431957709</v>
+        <v>8.35271636661973</v>
       </c>
     </row>
     <row r="172">
@@ -6843,10 +6843,10 @@
         <v>9</v>
       </c>
       <c r="F172" t="n">
-        <v>28.3437538310653</v>
+        <v>28.1951219512195</v>
       </c>
       <c r="G172" t="n">
-        <v>12.4462525562056</v>
+        <v>12.2976206763597</v>
       </c>
     </row>
     <row r="173">
@@ -6866,10 +6866,10 @@
         <v>9</v>
       </c>
       <c r="F173" t="n">
-        <v>22.5857187794904</v>
+        <v>22.4937343358396</v>
       </c>
       <c r="G173" t="n">
-        <v>9.16627919980564</v>
+        <v>9.07429475615483</v>
       </c>
     </row>
     <row r="174">
@@ -6889,10 +6889,10 @@
         <v>9</v>
       </c>
       <c r="F174" t="n">
-        <v>28.4757778653013</v>
+        <v>28.3307210031348</v>
       </c>
       <c r="G174" t="n">
-        <v>12.3776081481632</v>
+        <v>12.2325512859967</v>
       </c>
     </row>
     <row r="175">
@@ -6912,10 +6912,10 @@
         <v>9</v>
       </c>
       <c r="F175" t="n">
-        <v>27.6657060518732</v>
+        <v>27.3699215965788</v>
       </c>
       <c r="G175" t="n">
-        <v>10.4006181985501</v>
+        <v>10.1048337432556</v>
       </c>
     </row>
     <row r="176">
@@ -6935,10 +6935,10 @@
         <v>9</v>
       </c>
       <c r="F176" t="n">
-        <v>26.8194070080863</v>
+        <v>26.7114093959732</v>
       </c>
       <c r="G176" t="n">
-        <v>11.057770900893</v>
+        <v>10.9497732887799</v>
       </c>
     </row>
     <row r="177">
@@ -6958,10 +6958,10 @@
         <v>9</v>
       </c>
       <c r="F177" t="n">
-        <v>26.9334684228301</v>
+        <v>26.856373126789</v>
       </c>
       <c r="G177" t="n">
-        <v>10.0345759612367</v>
+        <v>9.9574806651956</v>
       </c>
     </row>
     <row r="178">
@@ -6981,10 +6981,10 @@
         <v>9</v>
       </c>
       <c r="F178" t="n">
-        <v>24.9275887038378</v>
+        <v>24.8780487804878</v>
       </c>
       <c r="G178" t="n">
-        <v>9.66596079686106</v>
+        <v>9.61642087351106</v>
       </c>
     </row>
     <row r="179">
@@ -7004,10 +7004,10 @@
         <v>9</v>
       </c>
       <c r="F179" t="n">
-        <v>24.9110320284698</v>
+        <v>24.8933143669986</v>
       </c>
       <c r="G179" t="n">
-        <v>8.87680583799356</v>
+        <v>8.85908817652238</v>
       </c>
     </row>
     <row r="180">
@@ -7027,10 +7027,10 @@
         <v>9</v>
       </c>
       <c r="F180" t="n">
-        <v>17.5666438824334</v>
+        <v>17.5306957708049</v>
       </c>
       <c r="G180" t="n">
-        <v>6.03782182729551</v>
+        <v>6.00187371566707</v>
       </c>
     </row>
     <row r="181">
@@ -7050,10 +7050,10 @@
         <v>9</v>
       </c>
       <c r="F181" t="n">
-        <v>18.473527389411</v>
+        <v>18.3599088838269</v>
       </c>
       <c r="G181" t="n">
-        <v>6.42177977252489</v>
+        <v>6.30816126694081</v>
       </c>
     </row>
     <row r="182">
@@ -7073,10 +7073,10 @@
         <v>9</v>
       </c>
       <c r="F182" t="n">
-        <v>28.7072912997534</v>
+        <v>28.5464098073555</v>
       </c>
       <c r="G182" t="n">
-        <v>8.91129583318751</v>
+        <v>8.75041434078959</v>
       </c>
     </row>
     <row r="183">
@@ -7096,10 +7096,10 @@
         <v>9</v>
       </c>
       <c r="F183" t="n">
-        <v>23.1962973046556</v>
+        <v>23.1144872490505</v>
       </c>
       <c r="G183" t="n">
-        <v>9.55333649188346</v>
+        <v>9.47152643627833</v>
       </c>
     </row>
     <row r="184">
@@ -7119,10 +7119,10 @@
         <v>9</v>
       </c>
       <c r="F184" t="n">
-        <v>25.3510378510379</v>
+        <v>25.2700441198844</v>
       </c>
       <c r="G184" t="n">
-        <v>9.19694267460535</v>
+        <v>9.11594894345188</v>
       </c>
     </row>
     <row r="185">
@@ -7142,10 +7142,10 @@
         <v>9</v>
       </c>
       <c r="F185" t="n">
-        <v>23.3018135306747</v>
+        <v>23.2826692226939</v>
       </c>
       <c r="G185" t="n">
-        <v>7.74407443278962</v>
+        <v>7.72493012480878</v>
       </c>
     </row>
     <row r="186">
@@ -7165,10 +7165,10 @@
         <v>9</v>
       </c>
       <c r="F186" t="n">
-        <v>17.6182136602452</v>
+        <v>17.5966415952423</v>
       </c>
       <c r="G186" t="n">
-        <v>5.33210825298988</v>
+        <v>5.31053618798696</v>
       </c>
     </row>
     <row r="187">
@@ -7188,10 +7188,10 @@
         <v>9</v>
       </c>
       <c r="F187" t="n">
-        <v>13.9331400760618</v>
+        <v>13.9031898519187</v>
       </c>
       <c r="G187" t="n">
-        <v>3.99544297583875</v>
+        <v>3.96549275169563</v>
       </c>
     </row>
     <row r="188">
@@ -7211,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="F188" t="n">
-        <v>15.1383874849579</v>
+        <v>15.109296180639</v>
       </c>
       <c r="G188" t="n">
-        <v>5.26007681924564</v>
+        <v>5.23098551492672</v>
       </c>
     </row>
     <row r="189">
@@ -7234,10 +7234,10 @@
         <v>9</v>
       </c>
       <c r="F189" t="n">
-        <v>21.3733515234197</v>
+        <v>21.3007024699751</v>
       </c>
       <c r="G189" t="n">
-        <v>6.33401788158725</v>
+        <v>6.26136882814259</v>
       </c>
     </row>
     <row r="190">
@@ -7257,10 +7257,10 @@
         <v>9</v>
       </c>
       <c r="F190" t="n">
-        <v>16.2653147444022</v>
+        <v>16.2538699690402</v>
       </c>
       <c r="G190" t="n">
-        <v>3.74115014898656</v>
+        <v>3.72970537362461</v>
       </c>
     </row>
     <row r="191">
@@ -7280,10 +7280,10 @@
         <v>9</v>
       </c>
       <c r="F191" t="n">
-        <v>20.9164191769198</v>
+        <v>20.9876543209877</v>
       </c>
       <c r="G191" t="n">
-        <v>6.26621341560294</v>
+        <v>6.33744855967078</v>
       </c>
     </row>
     <row r="192">
@@ -7303,10 +7303,10 @@
         <v>9</v>
       </c>
       <c r="F192" t="n">
-        <v>20.4167840045058</v>
+        <v>20.3537338573835</v>
       </c>
       <c r="G192" t="n">
-        <v>6.09535047207071</v>
+        <v>6.03230032494844</v>
       </c>
     </row>
     <row r="193">
@@ -7326,10 +7326,10 @@
         <v>9</v>
       </c>
       <c r="F193" t="n">
-        <v>16.2098049551924</v>
+        <v>16.1969976297077</v>
       </c>
       <c r="G193" t="n">
-        <v>4.64127968161242</v>
+        <v>4.62847235612767</v>
       </c>
     </row>
     <row r="194">
@@ -7349,10 +7349,10 @@
         <v>9</v>
       </c>
       <c r="F194" t="n">
-        <v>26.0655737704918</v>
+        <v>26.0229132569558</v>
       </c>
       <c r="G194" t="n">
-        <v>8.37574018078407</v>
+        <v>8.33307966724808</v>
       </c>
     </row>
     <row r="195">
@@ -7372,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="F195" t="n">
-        <v>22.2780088939894</v>
+        <v>22.1004696171908</v>
       </c>
       <c r="G195" t="n">
-        <v>7.12603550823405</v>
+        <v>6.9484962314355</v>
       </c>
     </row>
     <row r="196">
@@ -7395,10 +7395,10 @@
         <v>9</v>
       </c>
       <c r="F196" t="n">
-        <v>21.0212628865979</v>
+        <v>20.9403080872914</v>
       </c>
       <c r="G196" t="n">
-        <v>7.73574908650438</v>
+        <v>7.65479428719784</v>
       </c>
     </row>
     <row r="197">
@@ -7418,10 +7418,10 @@
         <v>9</v>
       </c>
       <c r="F197" t="n">
-        <v>20.4035576795433</v>
+        <v>20.3199365415124</v>
       </c>
       <c r="G197" t="n">
-        <v>6.67074038340028</v>
+        <v>6.58711924536936</v>
       </c>
     </row>
     <row r="198">
@@ -7441,10 +7441,10 @@
         <v>9</v>
       </c>
       <c r="F198" t="n">
-        <v>16.4692333004278</v>
+        <v>16.434083073387</v>
       </c>
       <c r="G198" t="n">
-        <v>4.89413009306035</v>
+        <v>4.85897986601955</v>
       </c>
     </row>
     <row r="199">
@@ -7464,10 +7464,10 @@
         <v>9</v>
       </c>
       <c r="F199" t="n">
-        <v>19.7202166064982</v>
+        <v>19.7113216057736</v>
       </c>
       <c r="G199" t="n">
-        <v>6.97227811753006</v>
+        <v>6.96338311680544</v>
       </c>
     </row>
     <row r="200">
@@ -7487,10 +7487,10 @@
         <v>9</v>
       </c>
       <c r="F200" t="n">
-        <v>26.3256511148585</v>
+        <v>26.3010108573568</v>
       </c>
       <c r="G200" t="n">
-        <v>9.55593029792018</v>
+        <v>9.53129004041844</v>
       </c>
     </row>
     <row r="201">
@@ -7510,10 +7510,10 @@
         <v>9</v>
       </c>
       <c r="F201" t="n">
-        <v>20.6006569685594</v>
+        <v>20.5284077624503</v>
       </c>
       <c r="G201" t="n">
-        <v>5.38664055693816</v>
+        <v>5.31439135082911</v>
       </c>
     </row>
     <row r="202">
@@ -7533,10 +7533,10 @@
         <v>9</v>
       </c>
       <c r="F202" t="n">
-        <v>23.3461460651426</v>
+        <v>23.2755143202904</v>
       </c>
       <c r="G202" t="n">
-        <v>8.63966627639593</v>
+        <v>8.56903453154374</v>
       </c>
     </row>
     <row r="203">
@@ -7556,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="F203" t="n">
-        <v>25.4371494556252</v>
+        <v>25.2952755905512</v>
       </c>
       <c r="G203" t="n">
-        <v>7.45424347271922</v>
+        <v>7.3123696076452</v>
       </c>
     </row>
     <row r="204">
@@ -7579,10 +7579,10 @@
         <v>9</v>
       </c>
       <c r="F204" t="n">
-        <v>23.1455586629378</v>
+        <v>23.1424766977364</v>
       </c>
       <c r="G204" t="n">
-        <v>8.13902271522539</v>
+        <v>8.13594075002393</v>
       </c>
     </row>
     <row r="205">
@@ -7602,10 +7602,10 @@
         <v>9</v>
       </c>
       <c r="F205" t="n">
-        <v>23.037100949094</v>
+        <v>22.9776247848537</v>
       </c>
       <c r="G205" t="n">
-        <v>6.39802810141193</v>
+        <v>6.33855193717158</v>
       </c>
     </row>
     <row r="206">
@@ -7625,10 +7625,10 @@
         <v>9</v>
       </c>
       <c r="F206" t="n">
-        <v>23.3954451345756</v>
+        <v>23.3149931224209</v>
       </c>
       <c r="G206" t="n">
-        <v>6.9806099697404</v>
+        <v>6.90015795758574</v>
       </c>
     </row>
     <row r="207">
@@ -7648,10 +7648,10 @@
         <v>9</v>
       </c>
       <c r="F207" t="n">
-        <v>30.521472392638</v>
+        <v>30.3662258392675</v>
       </c>
       <c r="G207" t="n">
-        <v>9.85986718656429</v>
+        <v>9.7046206331938</v>
       </c>
     </row>
     <row r="208">
@@ -7671,10 +7671,10 @@
         <v>9</v>
       </c>
       <c r="F208" t="n">
-        <v>25.7241379310345</v>
+        <v>25.4955570745044</v>
       </c>
       <c r="G208" t="n">
-        <v>8.9333457847921</v>
+        <v>8.70476492826206</v>
       </c>
     </row>
     <row r="209">
@@ -7694,10 +7694,10 @@
         <v>9</v>
       </c>
       <c r="F209" t="n">
-        <v>21.0022107590273</v>
+        <v>20.9097578870139</v>
       </c>
       <c r="G209" t="n">
-        <v>6.16934167824732</v>
+        <v>6.076888806234</v>
       </c>
     </row>
     <row r="210">
@@ -7717,10 +7717,10 @@
         <v>9</v>
       </c>
       <c r="F210" t="n">
-        <v>27.7551020408163</v>
+        <v>27.9835390946502</v>
       </c>
       <c r="G210" t="n">
-        <v>7.52388816798396</v>
+        <v>7.75232522181783</v>
       </c>
     </row>
     <row r="211">
@@ -7740,10 +7740,10 @@
         <v>9</v>
       </c>
       <c r="F211" t="n">
-        <v>21.9438116932422</v>
+        <v>22.1032504780115</v>
       </c>
       <c r="G211" t="n">
-        <v>7.42888632010789</v>
+        <v>7.58832510487714</v>
       </c>
     </row>
     <row r="212">
@@ -7763,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="F212" t="n">
-        <v>21.1023622047244</v>
+        <v>21.041612143418</v>
       </c>
       <c r="G212" t="n">
-        <v>6.66220776456997</v>
+        <v>6.60145770326351</v>
       </c>
     </row>
     <row r="213">
@@ -7786,10 +7786,10 @@
         <v>9</v>
       </c>
       <c r="F213" t="n">
-        <v>23.8333333333333</v>
+        <v>23.8068812430633</v>
       </c>
       <c r="G213" t="n">
-        <v>9.01032448377581</v>
+        <v>8.98387239350574</v>
       </c>
     </row>
     <row r="214">
@@ -7809,10 +7809,10 @@
         <v>9</v>
       </c>
       <c r="F214" t="n">
-        <v>22.7718078381795</v>
+        <v>22.7107959022853</v>
       </c>
       <c r="G214" t="n">
-        <v>8.01092494424941</v>
+        <v>7.94991300835516</v>
       </c>
     </row>
     <row r="215">
@@ -7832,10 +7832,10 @@
         <v>9</v>
       </c>
       <c r="F215" t="n">
-        <v>22.0805369127517</v>
+        <v>22.3353699932111</v>
       </c>
       <c r="G215" t="n">
-        <v>5.12906732970315</v>
+        <v>5.3839004101626</v>
       </c>
     </row>
     <row r="216">
@@ -7855,10 +7855,10 @@
         <v>9</v>
       </c>
       <c r="F216" t="n">
-        <v>24.3883495145631</v>
+        <v>24.312814556717</v>
       </c>
       <c r="G216" t="n">
-        <v>7.91525621220151</v>
+        <v>7.8397212543554</v>
       </c>
     </row>
     <row r="217">
@@ -7878,10 +7878,10 @@
         <v>9</v>
       </c>
       <c r="F217" t="n">
-        <v>25.6911665542819</v>
+        <v>25.7085020242915</v>
       </c>
       <c r="G217" t="n">
-        <v>11.2474450188232</v>
+        <v>11.2647804888328</v>
       </c>
     </row>
     <row r="218">
@@ -7901,10 +7901,10 @@
         <v>9</v>
       </c>
       <c r="F218" t="n">
-        <v>25.8313057583131</v>
+        <v>25.8943089430894</v>
       </c>
       <c r="G218" t="n">
-        <v>8.01653346592883</v>
+        <v>8.0795366507052</v>
       </c>
     </row>
     <row r="219">
@@ -7924,10 +7924,10 @@
         <v>9</v>
       </c>
       <c r="F219" t="n">
-        <v>25.674648422653</v>
+        <v>25.6941802966908</v>
       </c>
       <c r="G219" t="n">
-        <v>8.59092311691451</v>
+        <v>8.61045499095228</v>
       </c>
     </row>
     <row r="220">
@@ -7947,10 +7947,10 @@
         <v>9</v>
       </c>
       <c r="F220" t="n">
-        <v>20.1602959309494</v>
+        <v>20.2853598014888</v>
       </c>
       <c r="G220" t="n">
-        <v>6.70247236366033</v>
+        <v>6.82753623419972</v>
       </c>
     </row>
     <row r="221">
@@ -7970,10 +7970,10 @@
         <v>9</v>
       </c>
       <c r="F221" t="n">
-        <v>24.5357343837929</v>
+        <v>24.4943820224719</v>
       </c>
       <c r="G221" t="n">
-        <v>5.36097710223951</v>
+        <v>5.31962474091851</v>
       </c>
     </row>
     <row r="222">
@@ -7993,10 +7993,10 @@
         <v>9</v>
       </c>
       <c r="F222" t="n">
-        <v>20.4995287464656</v>
+        <v>20.4513399153738</v>
       </c>
       <c r="G222" t="n">
-        <v>6.47788762834116</v>
+        <v>6.42969879724933</v>
       </c>
     </row>
     <row r="223">
@@ -8016,10 +8016,10 @@
         <v>9</v>
       </c>
       <c r="F223" t="n">
-        <v>16.4942358853089</v>
+        <v>16.4117647058824</v>
       </c>
       <c r="G223" t="n">
-        <v>6.46508136635846</v>
+        <v>6.38261018693192</v>
       </c>
     </row>
     <row r="224">
@@ -8039,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="F224" t="n">
-        <v>23.4459938548806</v>
+        <v>23.4293811998111</v>
       </c>
       <c r="G224" t="n">
-        <v>8.35490572095647</v>
+        <v>8.33829306588688</v>
       </c>
     </row>
     <row r="225">
@@ -8062,10 +8062,10 @@
         <v>9</v>
       </c>
       <c r="F225" t="n">
-        <v>26.0149130074565</v>
+        <v>25.9933774834437</v>
       </c>
       <c r="G225" t="n">
-        <v>8.20915761177305</v>
+        <v>8.18762208776025</v>
       </c>
     </row>
     <row r="226">
@@ -8085,10 +8085,10 @@
         <v>9</v>
       </c>
       <c r="F226" t="n">
-        <v>16.7124793842771</v>
+        <v>16.7631651502619</v>
       </c>
       <c r="G226" t="n">
-        <v>4.66848796796806</v>
+        <v>4.71917373395291</v>
       </c>
     </row>
     <row r="227">
@@ -8108,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="F227" t="n">
-        <v>26.8579838116262</v>
+        <v>26.8431697003126</v>
       </c>
       <c r="G227" t="n">
-        <v>9.83380284438751</v>
+        <v>9.81898873307387</v>
       </c>
     </row>
     <row r="228">
@@ -8131,10 +8131,10 @@
         <v>9</v>
       </c>
       <c r="F228" t="n">
-        <v>22.0034084453702</v>
+        <v>21.970126678011</v>
       </c>
       <c r="G228" t="n">
-        <v>7.85354157583805</v>
+        <v>7.82025980847882</v>
       </c>
     </row>
     <row r="229">
@@ -8154,10 +8154,10 @@
         <v>9</v>
       </c>
       <c r="F229" t="n">
-        <v>20.1490533100577</v>
+        <v>20.1098974736983</v>
       </c>
       <c r="G229" t="n">
-        <v>6.387773572568</v>
+        <v>6.34861773620857</v>
       </c>
     </row>
     <row r="230">
@@ -8177,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="F230" t="n">
-        <v>24.3281471004243</v>
+        <v>24.2680776014109</v>
       </c>
       <c r="G230" t="n">
-        <v>9.16986032202582</v>
+        <v>9.10979082301242</v>
       </c>
     </row>
     <row r="231">
@@ -8200,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="F231" t="n">
-        <v>21.6317365269461</v>
+        <v>21.2656364974246</v>
       </c>
       <c r="G231" t="n">
-        <v>5.39208339332372</v>
+        <v>5.02598336380219</v>
       </c>
     </row>
     <row r="232">
@@ -8223,10 +8223,10 @@
         <v>9</v>
       </c>
       <c r="F232" t="n">
-        <v>26.1606484893147</v>
+        <v>26.1317629738682</v>
       </c>
       <c r="G232" t="n">
-        <v>9.55833188699806</v>
+        <v>9.52944637155164</v>
       </c>
     </row>
     <row r="233">
@@ -8246,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="F233" t="n">
-        <v>14.7933084473939</v>
+        <v>14.7606566422955</v>
       </c>
       <c r="G233" t="n">
-        <v>3.84763440312829</v>
+        <v>3.8149825980299</v>
       </c>
     </row>
     <row r="234">
@@ -8269,10 +8269,10 @@
         <v>9</v>
       </c>
       <c r="F234" t="n">
-        <v>22.8882833787466</v>
+        <v>22.9195088676671</v>
       </c>
       <c r="G234" t="n">
-        <v>8.0548739766471</v>
+        <v>8.08609946556762</v>
       </c>
     </row>
     <row r="235">
@@ -8292,10 +8292,10 @@
         <v>9</v>
       </c>
       <c r="F235" t="n">
-        <v>22.9671897289586</v>
+        <v>23.0907135173897</v>
       </c>
       <c r="G235" t="n">
-        <v>8.2155780490193</v>
+        <v>8.33910183745042</v>
       </c>
     </row>
     <row r="236">
@@ -8315,10 +8315,10 @@
         <v>9</v>
       </c>
       <c r="F236" t="n">
-        <v>29.916067146283</v>
+        <v>29.96996996997</v>
       </c>
       <c r="G236" t="n">
-        <v>13.9006923865136</v>
+        <v>13.9545952102006</v>
       </c>
     </row>
     <row r="237">
@@ -8338,10 +8338,10 @@
         <v>9</v>
       </c>
       <c r="F237" t="n">
-        <v>22.0352892901108</v>
+        <v>21.9228413962033</v>
       </c>
       <c r="G237" t="n">
-        <v>7.7852892901108</v>
+        <v>7.67284139620331</v>
       </c>
     </row>
     <row r="238">
@@ -8361,10 +8361,10 @@
         <v>9</v>
       </c>
       <c r="F238" t="n">
-        <v>20</v>
+        <v>19.8630136986301</v>
       </c>
       <c r="G238" t="n">
-        <v>6.62960021180831</v>
+        <v>6.49261391043845</v>
       </c>
     </row>
     <row r="239">
@@ -8407,10 +8407,10 @@
         <v>9</v>
       </c>
       <c r="F240" t="n">
-        <v>24.2610627028874</v>
+        <v>24.2527754056362</v>
       </c>
       <c r="G240" t="n">
-        <v>9.4965388115158</v>
+        <v>9.4882515142646</v>
       </c>
     </row>
     <row r="241">
@@ -8430,10 +8430,10 @@
         <v>9</v>
       </c>
       <c r="F241" t="n">
-        <v>22.4608501118568</v>
+        <v>22.3857302118172</v>
       </c>
       <c r="G241" t="n">
-        <v>6.08823190437623</v>
+        <v>6.01311200433658</v>
       </c>
     </row>
     <row r="242">
@@ -8453,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="F242" t="n">
-        <v>22.859450726979</v>
+        <v>22.813381700927</v>
       </c>
       <c r="G242" t="n">
-        <v>8.22734370356763</v>
+        <v>8.18127467751567</v>
       </c>
     </row>
     <row r="243">
@@ -8476,10 +8476,10 @@
         <v>9</v>
       </c>
       <c r="F243" t="n">
-        <v>12.5202173101646</v>
+        <v>12.5072499792858</v>
       </c>
       <c r="G243" t="n">
-        <v>2.00722168890565</v>
+        <v>1.99425435802678</v>
       </c>
     </row>
     <row r="244">
@@ -8499,10 +8499,10 @@
         <v>9</v>
       </c>
       <c r="F244" t="n">
-        <v>12.5550837272654</v>
+        <v>12.5390093622469</v>
       </c>
       <c r="G244" t="n">
-        <v>1.94283882930626</v>
+        <v>1.92676446428776</v>
       </c>
     </row>
     <row r="245">
@@ -8522,10 +8522,10 @@
         <v>9</v>
       </c>
       <c r="F245" t="n">
-        <v>21.814175541682</v>
+        <v>21.8302094818082</v>
       </c>
       <c r="G245" t="n">
-        <v>4.54714343518236</v>
+        <v>4.56317737530855</v>
       </c>
     </row>
     <row r="246">
@@ -8545,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="F246" t="n">
-        <v>16.4173123163238</v>
+        <v>16.4019751768317</v>
       </c>
       <c r="G246" t="n">
-        <v>4.10981744979403</v>
+        <v>4.09448031030193</v>
       </c>
     </row>
     <row r="247">
@@ -8568,10 +8568,10 @@
         <v>9</v>
       </c>
       <c r="F247" t="n">
-        <v>18.6875891583452</v>
+        <v>18.679595037787</v>
       </c>
       <c r="G247" t="n">
-        <v>4.963812934569</v>
+        <v>4.95581881401074</v>
       </c>
     </row>
     <row r="248">
@@ -8591,10 +8591,10 @@
         <v>9</v>
       </c>
       <c r="F248" t="n">
-        <v>16.8128382160851</v>
+        <v>16.7752746229752</v>
       </c>
       <c r="G248" t="n">
-        <v>4.24873565198253</v>
+        <v>4.21117205887268</v>
       </c>
     </row>
     <row r="249">
@@ -8614,10 +8614,10 @@
         <v>9</v>
       </c>
       <c r="F249" t="n">
-        <v>15.0943396226415</v>
+        <v>14.994793474488</v>
       </c>
       <c r="G249" t="n">
-        <v>3.48689461418127</v>
+        <v>3.38734846602779</v>
       </c>
     </row>
     <row r="250">
@@ -8637,10 +8637,10 @@
         <v>9</v>
       </c>
       <c r="F250" t="n">
-        <v>11.4001830304615</v>
+        <v>11.3571242511071</v>
       </c>
       <c r="G250" t="n">
-        <v>1.86877969385698</v>
+        <v>1.82572091450254</v>
       </c>
     </row>
     <row r="251">
@@ -8660,10 +8660,10 @@
         <v>9</v>
       </c>
       <c r="F251" t="n">
-        <v>10.679719657359</v>
+        <v>10.6714095153401</v>
       </c>
       <c r="G251" t="n">
-        <v>1.79631435199194</v>
+        <v>1.78800420997309</v>
       </c>
     </row>
     <row r="252">
@@ -8683,10 +8683,10 @@
         <v>9</v>
       </c>
       <c r="F252" t="n">
-        <v>11.5873308166835</v>
+        <v>11.5559432532942</v>
       </c>
       <c r="G252" t="n">
-        <v>1.87175283982002</v>
+        <v>1.84036527643063</v>
       </c>
     </row>
     <row r="253">
@@ -8706,10 +8706,10 @@
         <v>9</v>
       </c>
       <c r="F253" t="n">
-        <v>17.9634353741497</v>
+        <v>17.891170865975</v>
       </c>
       <c r="G253" t="n">
-        <v>4.96788735634173</v>
+        <v>4.89562284816708</v>
       </c>
     </row>
     <row r="254">
@@ -8729,10 +8729,10 @@
         <v>9</v>
       </c>
       <c r="F254" t="n">
-        <v>15.0856867004586</v>
+        <v>15.0493619070551</v>
       </c>
       <c r="G254" t="n">
-        <v>1.48039955369471</v>
+        <v>1.44407476029124</v>
       </c>
     </row>
     <row r="255">
@@ -8752,10 +8752,10 @@
         <v>9</v>
       </c>
       <c r="F255" t="n">
-        <v>20.9127671865973</v>
+        <v>20.8826074415922</v>
       </c>
       <c r="G255" t="n">
-        <v>6.35470826112074</v>
+        <v>6.32454851611555</v>
       </c>
     </row>
     <row r="256">
@@ -8775,10 +8775,10 @@
         <v>9</v>
       </c>
       <c r="F256" t="n">
-        <v>11.5855150477123</v>
+        <v>11.5523025312595</v>
       </c>
       <c r="G256" t="n">
-        <v>2.34024307628536</v>
+        <v>2.30703055983263</v>
       </c>
     </row>
     <row r="257">
@@ -8798,10 +8798,10 @@
         <v>9</v>
       </c>
       <c r="F257" t="n">
-        <v>16.9594594594595</v>
+        <v>16.8611974137207</v>
       </c>
       <c r="G257" t="n">
-        <v>4.29105774482382</v>
+        <v>4.19279569908508</v>
       </c>
     </row>
     <row r="258">
@@ -8821,10 +8821,10 @@
         <v>9</v>
       </c>
       <c r="F258" t="n">
-        <v>15.964543543818</v>
+        <v>15.9456005841548</v>
       </c>
       <c r="G258" t="n">
-        <v>4.28358147820651</v>
+        <v>4.26463851854334</v>
       </c>
     </row>
     <row r="259">
@@ -8844,10 +8844,10 @@
         <v>9</v>
       </c>
       <c r="F259" t="n">
-        <v>19.341147938561</v>
+        <v>19.2555331991952</v>
       </c>
       <c r="G259" t="n">
-        <v>5.47194364619416</v>
+        <v>5.38632890682829</v>
       </c>
     </row>
     <row r="260">
@@ -8867,10 +8867,10 @@
         <v>9</v>
       </c>
       <c r="F260" t="n">
-        <v>17.0233152347493</v>
+        <v>16.9448418375457</v>
       </c>
       <c r="G260" t="n">
-        <v>5.11891348009794</v>
+        <v>5.04044008289436</v>
       </c>
     </row>
     <row r="261">
@@ -8890,10 +8890,10 @@
         <v>9</v>
       </c>
       <c r="F261" t="n">
-        <v>18.9737470167064</v>
+        <v>18.8612099644128</v>
       </c>
       <c r="G261" t="n">
-        <v>6.36454492002619</v>
+        <v>6.25200786773256</v>
       </c>
     </row>
     <row r="262">
@@ -8913,10 +8913,10 @@
         <v>9</v>
       </c>
       <c r="F262" t="n">
-        <v>28.19902077544</v>
+        <v>28.1097480543464</v>
       </c>
       <c r="G262" t="n">
-        <v>8.57632913202296</v>
+        <v>8.48705641092936</v>
       </c>
     </row>
     <row r="263">
@@ -8936,10 +8936,10 @@
         <v>9</v>
       </c>
       <c r="F263" t="n">
-        <v>26.5072765072765</v>
+        <v>26.4385692068429</v>
       </c>
       <c r="G263" t="n">
-        <v>7.45475333528886</v>
+        <v>7.38604603485528</v>
       </c>
     </row>
     <row r="264">
@@ -8959,10 +8959,10 @@
         <v>9</v>
       </c>
       <c r="F264" t="n">
-        <v>29.6542326690513</v>
+        <v>29.3988517392773</v>
       </c>
       <c r="G264" t="n">
-        <v>10.8998954032636</v>
+        <v>10.6445144734896</v>
       </c>
     </row>
     <row r="265">
@@ -8982,10 +8982,10 @@
         <v>9</v>
       </c>
       <c r="F265" t="n">
-        <v>26.0165345031213</v>
+        <v>25.9683395082519</v>
       </c>
       <c r="G265" t="n">
-        <v>8.67670163404053</v>
+        <v>8.62850663917116</v>
       </c>
     </row>
     <row r="266">
@@ -9005,10 +9005,10 @@
         <v>9</v>
       </c>
       <c r="F266" t="n">
-        <v>27.1857373086221</v>
+        <v>27.3593512417638</v>
       </c>
       <c r="G266" t="n">
-        <v>9.90203111182936</v>
+        <v>10.0756450449711</v>
       </c>
     </row>
     <row r="267">
@@ -9028,10 +9028,10 @@
         <v>9</v>
       </c>
       <c r="F267" t="n">
-        <v>29.6588666478714</v>
+        <v>29.6505073280721</v>
       </c>
       <c r="G267" t="n">
-        <v>12.5309901550081</v>
+        <v>12.5226308352088</v>
       </c>
     </row>
     <row r="268">
@@ -9051,10 +9051,10 @@
         <v>9</v>
       </c>
       <c r="F268" t="n">
-        <v>21.2103055721989</v>
+        <v>21.4156079854809</v>
       </c>
       <c r="G268" t="n">
-        <v>6.14900960021994</v>
+        <v>6.35431201350196</v>
       </c>
     </row>
     <row r="269">
@@ -9074,10 +9074,10 @@
         <v>9</v>
       </c>
       <c r="F269" t="n">
-        <v>30.9441764300482</v>
+        <v>31.1805555555556</v>
       </c>
       <c r="G269" t="n">
-        <v>7.64829628023551</v>
+        <v>7.88467540574282</v>
       </c>
     </row>
     <row r="270">
@@ -9097,10 +9097,10 @@
         <v>9</v>
       </c>
       <c r="F270" t="n">
-        <v>28.0763790664781</v>
+        <v>28.1960227272727</v>
       </c>
       <c r="G270" t="n">
-        <v>9.80299777151405</v>
+        <v>9.9226414323087</v>
       </c>
     </row>
     <row r="271">
@@ -9120,10 +9120,10 @@
         <v>9</v>
       </c>
       <c r="F271" t="n">
-        <v>26.4187116564417</v>
+        <v>26.438986953185</v>
       </c>
       <c r="G271" t="n">
-        <v>8.62403485035807</v>
+        <v>8.64431014710131</v>
       </c>
     </row>
     <row r="272">
@@ -9143,10 +9143,10 @@
         <v>9</v>
       </c>
       <c r="F272" t="n">
-        <v>26.6814759965445</v>
+        <v>26.6683113358826</v>
       </c>
       <c r="G272" t="n">
-        <v>8.82263002611054</v>
+        <v>8.80946536544862</v>
       </c>
     </row>
     <row r="273">
@@ -9166,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="F273" t="n">
-        <v>25.8904109589041</v>
+        <v>25.9555962462806</v>
       </c>
       <c r="G273" t="n">
-        <v>9.43382832585089</v>
+        <v>9.49901361322739</v>
       </c>
     </row>
     <row r="274">
@@ -9189,10 +9189,10 @@
         <v>9</v>
       </c>
       <c r="F274" t="n">
-        <v>24.08357771261</v>
+        <v>24.1189427312775</v>
       </c>
       <c r="G274" t="n">
-        <v>8.35282278512764</v>
+        <v>8.3881878037952</v>
       </c>
     </row>
     <row r="275">
@@ -9212,10 +9212,10 @@
         <v>9</v>
       </c>
       <c r="F275" t="n">
-        <v>15.4502774221084</v>
+        <v>15.4217551831866</v>
       </c>
       <c r="G275" t="n">
-        <v>3.39456176408727</v>
+        <v>3.36603952516546</v>
       </c>
     </row>
     <row r="276">
@@ -9235,10 +9235,10 @@
         <v>9</v>
       </c>
       <c r="F276" t="n">
-        <v>19.0288924558587</v>
+        <v>18.9604158336665</v>
       </c>
       <c r="G276" t="n">
-        <v>6.38252243243955</v>
+        <v>6.31404581024733</v>
       </c>
     </row>
     <row r="277">
@@ -9258,10 +9258,10 @@
         <v>9</v>
       </c>
       <c r="F277" t="n">
-        <v>20.3516647961092</v>
+        <v>20.2230483271375</v>
       </c>
       <c r="G277" t="n">
-        <v>6.29529661915597</v>
+        <v>6.16668015018428</v>
       </c>
     </row>
     <row r="278">
@@ -9281,10 +9281,10 @@
         <v>9</v>
       </c>
       <c r="F278" t="n">
-        <v>24.4664798447941</v>
+        <v>24.4243598020228</v>
       </c>
       <c r="G278" t="n">
-        <v>6.69257437757567</v>
+        <v>6.65045433480434</v>
       </c>
     </row>
     <row r="279">
@@ -9327,10 +9327,10 @@
         <v>9</v>
       </c>
       <c r="F280" t="n">
-        <v>16.9798428425009</v>
+        <v>16.8875297315664</v>
       </c>
       <c r="G280" t="n">
-        <v>4.40225381930582</v>
+        <v>4.30994070837139</v>
       </c>
     </row>
     <row r="281">
@@ -9350,10 +9350,10 @@
         <v>9</v>
       </c>
       <c r="F281" t="n">
-        <v>23.517559009787</v>
+        <v>23.558246828143</v>
       </c>
       <c r="G281" t="n">
-        <v>5.07804174905165</v>
+        <v>5.11872956740769</v>
       </c>
     </row>
     <row r="282">
@@ -9373,10 +9373,10 @@
         <v>9</v>
       </c>
       <c r="F282" t="n">
-        <v>13.5181236673774</v>
+        <v>13.4550084889643</v>
       </c>
       <c r="G282" t="n">
-        <v>3.65781142415636</v>
+        <v>3.59469624574331</v>
       </c>
     </row>
     <row r="283">
@@ -9396,10 +9396,10 @@
         <v>9</v>
       </c>
       <c r="F283" t="n">
-        <v>23.8045953218795</v>
+        <v>23.6576836041967</v>
       </c>
       <c r="G283" t="n">
-        <v>7.08028199532815</v>
+        <v>6.93337027764529</v>
       </c>
     </row>
     <row r="284">
@@ -9419,10 +9419,10 @@
         <v>9</v>
       </c>
       <c r="F284" t="n">
-        <v>21.625</v>
+        <v>21.5174129353234</v>
       </c>
       <c r="G284" t="n">
-        <v>6.13038687561215</v>
+        <v>6.02279981093553</v>
       </c>
     </row>
     <row r="285">
@@ -9442,10 +9442,10 @@
         <v>9</v>
       </c>
       <c r="F285" t="n">
-        <v>13.1484794275492</v>
+        <v>13.1279303415941</v>
       </c>
       <c r="G285" t="n">
-        <v>3.08696800399911</v>
+        <v>3.06641891804402</v>
       </c>
     </row>
     <row r="286">
@@ -9465,10 +9465,10 @@
         <v>9</v>
       </c>
       <c r="F286" t="n">
-        <v>18.359853121175</v>
+        <v>18.2704019488429</v>
       </c>
       <c r="G286" t="n">
-        <v>6.14834778187086</v>
+        <v>6.05889660953871</v>
       </c>
     </row>
     <row r="287">
@@ -9488,10 +9488,10 @@
         <v>9</v>
       </c>
       <c r="F287" t="n">
-        <v>25.2271640363462</v>
+        <v>25.2151051625239</v>
       </c>
       <c r="G287" t="n">
-        <v>6.19407321259595</v>
+        <v>6.1820143387736</v>
       </c>
     </row>
     <row r="288">
@@ -9511,10 +9511,10 @@
         <v>9</v>
       </c>
       <c r="F288" t="n">
-        <v>12.0361990950226</v>
+        <v>12.0036101083032</v>
       </c>
       <c r="G288" t="n">
-        <v>3.42633362417061</v>
+        <v>3.39374463745123</v>
       </c>
     </row>
     <row r="289">
@@ -9534,10 +9534,10 @@
         <v>9</v>
       </c>
       <c r="F289" t="n">
-        <v>15.9706546275395</v>
+        <v>15.943661971831</v>
       </c>
       <c r="G289" t="n">
-        <v>4.43015700975232</v>
+        <v>4.4031643540438</v>
       </c>
     </row>
     <row r="290">
@@ -9557,10 +9557,10 @@
         <v>9</v>
       </c>
       <c r="F290" t="n">
-        <v>12.5651144435675</v>
+        <v>12.5949367088608</v>
       </c>
       <c r="G290" t="n">
-        <v>1.93717095848114</v>
+        <v>1.96699322377442</v>
       </c>
     </row>
     <row r="291">
@@ -9580,10 +9580,10 @@
         <v>9</v>
       </c>
       <c r="F291" t="n">
-        <v>20.2982810920121</v>
+        <v>20.2880242546741</v>
       </c>
       <c r="G291" t="n">
-        <v>4.82987150595549</v>
+        <v>4.81961466861743</v>
       </c>
     </row>
     <row r="292">
@@ -9603,10 +9603,10 @@
         <v>9</v>
       </c>
       <c r="F292" t="n">
-        <v>17.0903522205207</v>
+        <v>17.032967032967</v>
       </c>
       <c r="G292" t="n">
-        <v>4.21764579850233</v>
+        <v>4.16026061094868</v>
       </c>
     </row>
     <row r="293">
@@ -9626,10 +9626,10 @@
         <v>9</v>
       </c>
       <c r="F293" t="n">
-        <v>14.2671854734112</v>
+        <v>14.1981284285253</v>
       </c>
       <c r="G293" t="n">
-        <v>2.90143756384163</v>
+        <v>2.8323805189558</v>
       </c>
     </row>
     <row r="294">
@@ -9649,10 +9649,10 @@
         <v>9</v>
       </c>
       <c r="F294" t="n">
-        <v>25.0857927247769</v>
+        <v>24.9743764947045</v>
       </c>
       <c r="G294" t="n">
-        <v>10.2092083351839</v>
+        <v>10.0977921051114</v>
       </c>
     </row>
     <row r="295">
@@ -9672,10 +9672,10 @@
         <v>9</v>
       </c>
       <c r="F295" t="n">
-        <v>20.6625980819529</v>
+        <v>20.5491329479769</v>
       </c>
       <c r="G295" t="n">
-        <v>6.43976451936695</v>
+        <v>6.32629938539091</v>
       </c>
     </row>
     <row r="296">
@@ -9695,10 +9695,10 @@
         <v>9</v>
       </c>
       <c r="F296" t="n">
-        <v>18.6370419499254</v>
+        <v>18.5693044771188</v>
       </c>
       <c r="G296" t="n">
-        <v>5.68601102209033</v>
+        <v>5.61827354928373</v>
       </c>
     </row>
     <row r="297">
@@ -9718,10 +9718,10 @@
         <v>9</v>
       </c>
       <c r="F297" t="n">
-        <v>13.9841071985042</v>
+        <v>13.9363354037267</v>
       </c>
       <c r="G297" t="n">
-        <v>3.03564730219436</v>
+        <v>2.98787550741686</v>
       </c>
     </row>
     <row r="298">
@@ -9741,10 +9741,10 @@
         <v>9</v>
       </c>
       <c r="F298" t="n">
-        <v>14.8413111342352</v>
+        <v>14.7396977134737</v>
       </c>
       <c r="G298" t="n">
-        <v>3.06778282527379</v>
+        <v>2.96616940451233</v>
       </c>
     </row>
     <row r="299">
@@ -9764,10 +9764,10 @@
         <v>9</v>
       </c>
       <c r="F299" t="n">
-        <v>18.0131786277038</v>
+        <v>17.8978081411899</v>
       </c>
       <c r="G299" t="n">
-        <v>2.66734277370095</v>
+        <v>2.55197228718704</v>
       </c>
     </row>
     <row r="300">
@@ -9787,10 +9787,10 @@
         <v>9</v>
       </c>
       <c r="F300" t="n">
-        <v>19.3884408602151</v>
+        <v>19.2397465821941</v>
       </c>
       <c r="G300" t="n">
-        <v>6.05728049515638</v>
+        <v>5.9085862171354</v>
       </c>
     </row>
     <row r="301">
@@ -9810,10 +9810,10 @@
         <v>9</v>
       </c>
       <c r="F301" t="n">
-        <v>11.1069206109749</v>
+        <v>11.0985490861127</v>
       </c>
       <c r="G301" t="n">
-        <v>0.99084918240349</v>
+        <v>0.982477657541255</v>
       </c>
     </row>
     <row r="302">
@@ -9833,10 +9833,10 @@
         <v>9</v>
       </c>
       <c r="F302" t="n">
-        <v>14.3005952380952</v>
+        <v>14.2857142857143</v>
       </c>
       <c r="G302" t="n">
-        <v>1.9982859308874</v>
+        <v>1.98340497850645</v>
       </c>
     </row>
     <row r="303">
@@ -9856,10 +9856,10 @@
         <v>9</v>
       </c>
       <c r="F303" t="n">
-        <v>14.2273279575831</v>
+        <v>14.1928374655647</v>
       </c>
       <c r="G303" t="n">
-        <v>2.13631819215475</v>
+        <v>2.10182770013637</v>
       </c>
     </row>
     <row r="304">
@@ -9879,10 +9879,10 @@
         <v>9</v>
       </c>
       <c r="F304" t="n">
-        <v>13.0833333333333</v>
+        <v>13.0534192475577</v>
       </c>
       <c r="G304" t="n">
-        <v>1.94831450600681</v>
+        <v>1.91840042023116</v>
       </c>
     </row>
     <row r="305">
@@ -9902,10 +9902,10 @@
         <v>9</v>
       </c>
       <c r="F305" t="n">
-        <v>12.450884086444</v>
+        <v>12.4203821656051</v>
       </c>
       <c r="G305" t="n">
-        <v>2.1903353200156</v>
+        <v>2.15983339917669</v>
       </c>
     </row>
     <row r="306">
@@ -9925,10 +9925,10 @@
         <v>9</v>
       </c>
       <c r="F306" t="n">
-        <v>13.7607119314436</v>
+        <v>13.7312941950337</v>
       </c>
       <c r="G306" t="n">
-        <v>2.01756576519236</v>
+        <v>1.98814802878243</v>
       </c>
     </row>
     <row r="307">
@@ -9948,10 +9948,10 @@
         <v>9</v>
       </c>
       <c r="F307" t="n">
-        <v>13.5384615384615</v>
+        <v>13.5224586288416</v>
       </c>
       <c r="G307" t="n">
-        <v>2.19530919728765</v>
+        <v>2.17930628766772</v>
       </c>
     </row>
     <row r="308">
@@ -9971,10 +9971,10 @@
         <v>9</v>
       </c>
       <c r="F308" t="n">
-        <v>19.4842093760245</v>
+        <v>19.3909733550843</v>
       </c>
       <c r="G308" t="n">
-        <v>4.75866754900402</v>
+        <v>4.66543152806383</v>
       </c>
     </row>
     <row r="309">
@@ -9994,10 +9994,10 @@
         <v>9</v>
       </c>
       <c r="F309" t="n">
-        <v>15.1954821894005</v>
+        <v>15.1520401975223</v>
       </c>
       <c r="G309" t="n">
-        <v>2.1071254594253</v>
+        <v>2.06368346754708</v>
       </c>
     </row>
     <row r="310">
@@ -10017,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F310" t="n">
-        <v>17.4667114244154</v>
+        <v>17.4374441465594</v>
       </c>
       <c r="G310" t="n">
-        <v>4.46266815045622</v>
+        <v>4.4334008726003</v>
       </c>
     </row>
     <row r="311">
@@ -10040,10 +10040,10 @@
         <v>9</v>
       </c>
       <c r="F311" t="n">
-        <v>12.3334830115252</v>
+        <v>12.3021797551508</v>
       </c>
       <c r="G311" t="n">
-        <v>2.5166126073287</v>
+        <v>2.48530935095427</v>
       </c>
     </row>
     <row r="312">
@@ -10063,10 +10063,10 @@
         <v>9</v>
       </c>
       <c r="F312" t="n">
-        <v>12.2745025106937</v>
+        <v>12.2517170967143</v>
       </c>
       <c r="G312" t="n">
-        <v>1.46181840048749</v>
+        <v>1.43903298650811</v>
       </c>
     </row>
     <row r="313">
@@ -10086,10 +10086,10 @@
         <v>9</v>
       </c>
       <c r="F313" t="n">
-        <v>20.8993698682452</v>
+        <v>20.8416642863944</v>
       </c>
       <c r="G313" t="n">
-        <v>5.74073297047785</v>
+        <v>5.68302738862703</v>
       </c>
     </row>
     <row r="314">
@@ -10109,10 +10109,10 @@
         <v>9</v>
       </c>
       <c r="F314" t="n">
-        <v>27.2330423102754</v>
+        <v>27.19651240778</v>
       </c>
       <c r="G314" t="n">
-        <v>7.33610082091365</v>
+        <v>7.29957091841831</v>
       </c>
     </row>
     <row r="315">
@@ -10132,10 +10132,10 @@
         <v>9</v>
       </c>
       <c r="F315" t="n">
-        <v>20.7998981021526</v>
+        <v>20.7417756890639</v>
       </c>
       <c r="G315" t="n">
-        <v>6.60083892908995</v>
+        <v>6.54271651600125</v>
       </c>
     </row>
     <row r="316">
@@ -10155,10 +10155,10 @@
         <v>9</v>
       </c>
       <c r="F316" t="n">
-        <v>24.3380062305296</v>
+        <v>24.2624223602484</v>
       </c>
       <c r="G316" t="n">
-        <v>8.51792092614805</v>
+        <v>8.44233705586691</v>
       </c>
     </row>
     <row r="317">
@@ -10178,10 +10178,10 @@
         <v>9</v>
       </c>
       <c r="F317" t="n">
-        <v>25.8225848907607</v>
+        <v>25.7345225603358</v>
       </c>
       <c r="G317" t="n">
-        <v>9.8704413214686</v>
+        <v>9.78237899104366</v>
       </c>
     </row>
     <row r="318">
@@ -10201,10 +10201,10 @@
         <v>9</v>
       </c>
       <c r="F318" t="n">
-        <v>23.7480269766107</v>
+        <v>23.6529941403459</v>
       </c>
       <c r="G318" t="n">
-        <v>7.12791524476713</v>
+        <v>7.03288240850229</v>
       </c>
     </row>
     <row r="319">
@@ -10224,10 +10224,10 @@
         <v>9</v>
       </c>
       <c r="F319" t="n">
-        <v>25.0262146102761</v>
+        <v>25.0524842547236</v>
       </c>
       <c r="G319" t="n">
-        <v>7.87645615616985</v>
+        <v>7.9027258006173</v>
       </c>
     </row>
     <row r="320">
@@ -10247,10 +10247,10 @@
         <v>9</v>
       </c>
       <c r="F320" t="n">
-        <v>18.6432726590355</v>
+        <v>18.6118396403147</v>
       </c>
       <c r="G320" t="n">
-        <v>5.23794776609188</v>
+        <v>5.20651474737114</v>
       </c>
     </row>
     <row r="321">
@@ -10270,10 +10270,10 @@
         <v>9</v>
       </c>
       <c r="F321" t="n">
-        <v>20.7522935779816</v>
+        <v>20.7256734469489</v>
       </c>
       <c r="G321" t="n">
-        <v>4.21792438358881</v>
+        <v>4.19130425255603</v>
       </c>
     </row>
     <row r="322">
@@ -10293,10 +10293,10 @@
         <v>9</v>
       </c>
       <c r="F322" t="n">
-        <v>18.2413623710496</v>
+        <v>18.2443498198493</v>
       </c>
       <c r="G322" t="n">
-        <v>4.76944869285222</v>
+        <v>4.77243614165193</v>
       </c>
     </row>
     <row r="323">
@@ -10316,10 +10316,10 @@
         <v>9</v>
       </c>
       <c r="F323" t="n">
-        <v>17.1115481876932</v>
+        <v>17.0111731843575</v>
       </c>
       <c r="G323" t="n">
-        <v>4.17846170263631</v>
+        <v>4.07808669930068</v>
       </c>
     </row>
     <row r="324">
@@ -10339,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="F324" t="n">
-        <v>20.3499634793102</v>
+        <v>20.2765560231624</v>
       </c>
       <c r="G324" t="n">
-        <v>4.11681143390943</v>
+        <v>4.04340397776156</v>
       </c>
     </row>
     <row r="325">
@@ -10362,10 +10362,10 @@
         <v>9</v>
       </c>
       <c r="F325" t="n">
-        <v>18.5236193361796</v>
+        <v>18.4600603897886</v>
       </c>
       <c r="G325" t="n">
-        <v>4.43180047203148</v>
+        <v>4.36824152564052</v>
       </c>
     </row>
     <row r="326">
@@ -10385,10 +10385,10 @@
         <v>9</v>
       </c>
       <c r="F326" t="n">
-        <v>20.2497285559175</v>
+        <v>20.0969827586207</v>
       </c>
       <c r="G326" t="n">
-        <v>5.18047647835516</v>
+        <v>5.02773068105837</v>
       </c>
     </row>
     <row r="327">
@@ -10408,10 +10408,10 @@
         <v>9</v>
       </c>
       <c r="F327" t="n">
-        <v>24.2242670661245</v>
+        <v>24.2294520547945</v>
       </c>
       <c r="G327" t="n">
-        <v>7.29067748679505</v>
+        <v>7.29586247546503</v>
       </c>
     </row>
     <row r="328">
@@ -10431,10 +10431,10 @@
         <v>9</v>
       </c>
       <c r="F328" t="n">
-        <v>28.2958199356913</v>
+        <v>28.2549365869321</v>
       </c>
       <c r="G328" t="n">
-        <v>9.66339722998217</v>
+        <v>9.62251388122295</v>
       </c>
     </row>
     <row r="329">
@@ -10454,10 +10454,10 @@
         <v>9</v>
       </c>
       <c r="F329" t="n">
-        <v>23.8506959088992</v>
+        <v>23.8255740467664</v>
       </c>
       <c r="G329" t="n">
-        <v>7.35259224265394</v>
+        <v>7.32747038052112</v>
       </c>
     </row>
     <row r="330">
@@ -10477,10 +10477,10 @@
         <v>9</v>
       </c>
       <c r="F330" t="n">
-        <v>31.4508861519976</v>
+        <v>31.216457960644</v>
       </c>
       <c r="G330" t="n">
-        <v>12.2549973974631</v>
+        <v>12.0205692061095</v>
       </c>
     </row>
     <row r="331">
@@ -10500,10 +10500,10 @@
         <v>9</v>
       </c>
       <c r="F331" t="n">
-        <v>29.9768518518519</v>
+        <v>29.8616448885473</v>
       </c>
       <c r="G331" t="n">
-        <v>10.1349843819723</v>
+        <v>10.0197774186678</v>
       </c>
     </row>
     <row r="332">
@@ -10523,10 +10523,10 @@
         <v>9</v>
       </c>
       <c r="F332" t="n">
-        <v>28.9713086074178</v>
+        <v>28.9106145251397</v>
       </c>
       <c r="G332" t="n">
-        <v>7.93075772754019</v>
+        <v>7.87006364526208</v>
       </c>
     </row>
     <row r="333">
@@ -10546,10 +10546,10 @@
         <v>9</v>
       </c>
       <c r="F333" t="n">
-        <v>18.421749492453</v>
+        <v>18.3472527472527</v>
       </c>
       <c r="G333" t="n">
-        <v>5.94560859361559</v>
+        <v>5.87111184841534</v>
       </c>
     </row>
     <row r="334">
@@ -10569,10 +10569,10 @@
         <v>9</v>
       </c>
       <c r="F334" t="n">
-        <v>19.1550648103697</v>
+        <v>19.2011549566891</v>
       </c>
       <c r="G334" t="n">
-        <v>6.92965888868867</v>
+        <v>6.97574903500813</v>
       </c>
     </row>
     <row r="335">
@@ -10592,10 +10592,10 @@
         <v>9</v>
       </c>
       <c r="F335" t="n">
-        <v>21.9281298299845</v>
+        <v>21.8143378819912</v>
       </c>
       <c r="G335" t="n">
-        <v>5.17088345317295</v>
+        <v>5.05709150517956</v>
       </c>
     </row>
     <row r="336">
@@ -10615,10 +10615,10 @@
         <v>9</v>
       </c>
       <c r="F336" t="n">
-        <v>25.7887158004974</v>
+        <v>25.711302531976</v>
       </c>
       <c r="G336" t="n">
-        <v>6.86245448096316</v>
+        <v>6.7850412124417</v>
       </c>
     </row>
     <row r="337">
@@ -10638,10 +10638,10 @@
         <v>9</v>
       </c>
       <c r="F337" t="n">
-        <v>32.8210313447927</v>
+        <v>32.6690821256039</v>
       </c>
       <c r="G337" t="n">
-        <v>9.72667617379973</v>
+        <v>9.57472695461087</v>
       </c>
     </row>
     <row r="338">
@@ -10661,10 +10661,10 @@
         <v>9</v>
       </c>
       <c r="F338" t="n">
-        <v>32.3959505061867</v>
+        <v>32.3232323232323</v>
       </c>
       <c r="G338" t="n">
-        <v>10.148287846389</v>
+        <v>10.0755696634346</v>
       </c>
     </row>
     <row r="339">
@@ -10684,10 +10684,10 @@
         <v>9</v>
       </c>
       <c r="F339" t="n">
-        <v>14.6891475700788</v>
+        <v>14.6615953733132</v>
       </c>
       <c r="G339" t="n">
-        <v>3.58190176946258</v>
+        <v>3.55434957269695</v>
       </c>
     </row>
     <row r="340">
@@ -10707,10 +10707,10 @@
         <v>9</v>
       </c>
       <c r="F340" t="n">
-        <v>16.1290322580645</v>
+        <v>16.1000179888469</v>
       </c>
       <c r="G340" t="n">
-        <v>3.8632139477075</v>
+        <v>3.8341996784899</v>
       </c>
     </row>
     <row r="341">
@@ -10730,10 +10730,10 @@
         <v>9</v>
       </c>
       <c r="F341" t="n">
-        <v>16.4195115794788</v>
+        <v>16.3895187704711</v>
       </c>
       <c r="G341" t="n">
-        <v>3.88337330058352</v>
+        <v>3.8533804915759</v>
       </c>
     </row>
     <row r="342">
@@ -10753,10 +10753,10 @@
         <v>9</v>
       </c>
       <c r="F342" t="n">
-        <v>15.8225076631149</v>
+        <v>15.7959927140255</v>
       </c>
       <c r="G342" t="n">
-        <v>4.09841735033437</v>
+        <v>4.071902401245</v>
       </c>
     </row>
     <row r="343">
@@ -10776,10 +10776,10 @@
         <v>9</v>
       </c>
       <c r="F343" t="n">
-        <v>15.6054230949042</v>
+        <v>15.5646740650937</v>
       </c>
       <c r="G343" t="n">
-        <v>1.81142946268662</v>
+        <v>1.77068043287618</v>
       </c>
     </row>
     <row r="344">
@@ -10799,10 +10799,10 @@
         <v>9</v>
       </c>
       <c r="F344" t="n">
-        <v>15.2744630071599</v>
+        <v>15.3057738298599</v>
       </c>
       <c r="G344" t="n">
-        <v>2.60487642452985</v>
+        <v>2.63618724722986</v>
       </c>
     </row>
     <row r="345">
@@ -10822,10 +10822,10 @@
         <v>9</v>
       </c>
       <c r="F345" t="n">
-        <v>19.3077706141839</v>
+        <v>19.2441024773823</v>
       </c>
       <c r="G345" t="n">
-        <v>4.39126451270672</v>
+        <v>4.32759637590506</v>
       </c>
     </row>
     <row r="346">
@@ -10845,10 +10845,10 @@
         <v>9</v>
       </c>
       <c r="F346" t="n">
-        <v>17.9931867451223</v>
+        <v>17.9450221352826</v>
       </c>
       <c r="G346" t="n">
-        <v>2.80082504896956</v>
+        <v>2.75266043912985</v>
       </c>
     </row>
     <row r="347">
@@ -10868,10 +10868,10 @@
         <v>9</v>
       </c>
       <c r="F347" t="n">
-        <v>19.9710564399421</v>
+        <v>19.9508457423739</v>
       </c>
       <c r="G347" t="n">
-        <v>4.93565452407373</v>
+        <v>4.91544382650548</v>
       </c>
     </row>
     <row r="348">
@@ -10891,10 +10891,10 @@
         <v>9</v>
       </c>
       <c r="F348" t="n">
-        <v>19.8835107451295</v>
+        <v>19.895498392283</v>
       </c>
       <c r="G348" t="n">
-        <v>4.04130661238064</v>
+        <v>4.05329425953406</v>
       </c>
     </row>
     <row r="349">
@@ -10914,10 +10914,10 @@
         <v>9</v>
       </c>
       <c r="F349" t="n">
-        <v>18.1551362683438</v>
+        <v>18.1264244848598</v>
       </c>
       <c r="G349" t="n">
-        <v>4.44797115930955</v>
+        <v>4.41925937582549</v>
       </c>
     </row>
     <row r="350">
@@ -10937,10 +10937,10 @@
         <v>9</v>
       </c>
       <c r="F350" t="n">
-        <v>16.7024046561495</v>
+        <v>16.6628466651387</v>
       </c>
       <c r="G350" t="n">
-        <v>4.08054350400768</v>
+        <v>4.04098551299686</v>
       </c>
     </row>
     <row r="351">
@@ -10960,10 +10960,10 @@
         <v>9</v>
       </c>
       <c r="F351" t="n">
-        <v>15.86157815141</v>
+        <v>15.851706970128</v>
       </c>
       <c r="G351" t="n">
-        <v>3.94157113448168</v>
+        <v>3.93169995319968</v>
       </c>
     </row>
     <row r="352">
@@ -10983,10 +10983,10 @@
         <v>9</v>
       </c>
       <c r="F352" t="n">
-        <v>15.2908805031447</v>
+        <v>15.2638807141456</v>
       </c>
       <c r="G352" t="n">
-        <v>1.53398425826122</v>
+        <v>1.50698446926214</v>
       </c>
     </row>
     <row r="353">
@@ -11006,10 +11006,10 @@
         <v>9</v>
       </c>
       <c r="F353" t="n">
-        <v>19.1292475728155</v>
+        <v>19.1002726446531</v>
       </c>
       <c r="G353" t="n">
-        <v>4.24578787048473</v>
+        <v>4.21681294232233</v>
       </c>
     </row>
     <row r="354">
@@ -11029,10 +11029,10 @@
         <v>9</v>
       </c>
       <c r="F354" t="n">
-        <v>20.3055890631283</v>
+        <v>20.3015075376884</v>
       </c>
       <c r="G354" t="n">
-        <v>4.45920576708054</v>
+        <v>4.45512424164072</v>
       </c>
     </row>
     <row r="355">
@@ -11052,10 +11052,10 @@
         <v>9</v>
       </c>
       <c r="F355" t="n">
-        <v>16.7469122880469</v>
+        <v>16.6805671392827</v>
       </c>
       <c r="G355" t="n">
-        <v>3.67189797233779</v>
+        <v>3.60555282357363</v>
       </c>
     </row>
     <row r="356">
@@ -11075,10 +11075,10 @@
         <v>9</v>
       </c>
       <c r="F356" t="n">
-        <v>21.667098110277</v>
+        <v>21.6390899689762</v>
       </c>
       <c r="G356" t="n">
-        <v>4.56830508390238</v>
+        <v>4.54029694260161</v>
       </c>
     </row>
     <row r="357">
@@ -11098,10 +11098,10 @@
         <v>9</v>
       </c>
       <c r="F357" t="n">
-        <v>18.625265667928</v>
+        <v>18.5445161290323</v>
       </c>
       <c r="G357" t="n">
-        <v>3.70219572738432</v>
+        <v>3.62144618848853</v>
       </c>
     </row>
     <row r="358">
@@ -11144,10 +11144,10 @@
         <v>9</v>
       </c>
       <c r="F359" t="n">
-        <v>18.2647718773373</v>
+        <v>18.1858802502234</v>
       </c>
       <c r="G359" t="n">
-        <v>5.52167382212176</v>
+        <v>5.44278219500785</v>
       </c>
     </row>
     <row r="360">
@@ -11167,10 +11167,10 @@
         <v>9</v>
       </c>
       <c r="F360" t="n">
-        <v>19.5870088211708</v>
+        <v>19.5595595595596</v>
       </c>
       <c r="G360" t="n">
-        <v>4.92764142457714</v>
+        <v>4.90019216296589</v>
       </c>
     </row>
     <row r="361">
@@ -11190,10 +11190,10 @@
         <v>9</v>
       </c>
       <c r="F361" t="n">
-        <v>14.6708583404782</v>
+        <v>14.6429590187316</v>
       </c>
       <c r="G361" t="n">
-        <v>2.05726328413508</v>
+        <v>2.02936396238843</v>
       </c>
     </row>
     <row r="362">
@@ -11213,10 +11213,10 @@
         <v>9</v>
       </c>
       <c r="F362" t="n">
-        <v>16.2652462559827</v>
+        <v>16.2176724137931</v>
       </c>
       <c r="G362" t="n">
-        <v>4.24463950154653</v>
+        <v>4.19706565935693</v>
       </c>
     </row>
     <row r="363">
@@ -11236,10 +11236,10 @@
         <v>9</v>
       </c>
       <c r="F363" t="n">
-        <v>18.5433463176012</v>
+        <v>18.5064641533315</v>
       </c>
       <c r="G363" t="n">
-        <v>5.9311263228309</v>
+        <v>5.8942441585612</v>
       </c>
     </row>
     <row r="364">
@@ -11259,10 +11259,10 @@
         <v>9</v>
       </c>
       <c r="F364" t="n">
-        <v>21.1861100273117</v>
+        <v>21.2690951821387</v>
       </c>
       <c r="G364" t="n">
-        <v>5.72753014565494</v>
+        <v>5.81051530048186</v>
       </c>
     </row>
     <row r="365">
@@ -11282,10 +11282,10 @@
         <v>9</v>
       </c>
       <c r="F365" t="n">
-        <v>17.8111898221772</v>
+        <v>17.7957532861476</v>
       </c>
       <c r="G365" t="n">
-        <v>5.11678040645635</v>
+        <v>5.10134387042673</v>
       </c>
     </row>
     <row r="366">
@@ -11305,10 +11305,10 @@
         <v>9</v>
       </c>
       <c r="F366" t="n">
-        <v>20.2860858257477</v>
+        <v>20.3389830508475</v>
       </c>
       <c r="G366" t="n">
-        <v>7.18049576363592</v>
+        <v>7.23339298873566</v>
       </c>
     </row>
     <row r="367">
@@ -11328,10 +11328,10 @@
         <v>9</v>
       </c>
       <c r="F367" t="n">
-        <v>17.3698384201077</v>
+        <v>17.207647843486</v>
       </c>
       <c r="G367" t="n">
-        <v>4.54384440557159</v>
+        <v>4.38165382894987</v>
       </c>
     </row>
     <row r="368">
@@ -11351,10 +11351,10 @@
         <v>9</v>
       </c>
       <c r="F368" t="n">
-        <v>19.8863636363636</v>
+        <v>19.7670314154606</v>
       </c>
       <c r="G368" t="n">
-        <v>7.21993686414341</v>
+        <v>7.10060464324042</v>
       </c>
     </row>
     <row r="369">
@@ -11374,10 +11374,10 @@
         <v>9</v>
       </c>
       <c r="F369" t="n">
-        <v>10.6978577999737</v>
+        <v>10.6824146981627</v>
       </c>
       <c r="G369" t="n">
-        <v>2.06815735382968</v>
+        <v>2.05271425201869</v>
       </c>
     </row>
     <row r="370">
@@ -11397,10 +11397,10 @@
         <v>9</v>
       </c>
       <c r="F370" t="n">
-        <v>16.6836067954116</v>
+        <v>16.6280752532561</v>
       </c>
       <c r="G370" t="n">
-        <v>5.38887857907731</v>
+        <v>5.33334703692181</v>
       </c>
     </row>
     <row r="371">
@@ -11420,10 +11420,10 @@
         <v>9</v>
       </c>
       <c r="F371" t="n">
-        <v>17.8830352827453</v>
+        <v>17.8377726889237</v>
       </c>
       <c r="G371" t="n">
-        <v>5.50926859673252</v>
+        <v>5.46400600291094</v>
       </c>
     </row>
     <row r="372">
@@ -11443,10 +11443,10 @@
         <v>9</v>
       </c>
       <c r="F372" t="n">
-        <v>13.0908532842234</v>
+        <v>13.0727969348659</v>
       </c>
       <c r="G372" t="n">
-        <v>2.68836734163689</v>
+        <v>2.67031099227934</v>
       </c>
     </row>
     <row r="373">
@@ -11466,10 +11466,10 @@
         <v>9</v>
       </c>
       <c r="F373" t="n">
-        <v>16.4583333333333</v>
+        <v>16.4172901080632</v>
       </c>
       <c r="G373" t="n">
-        <v>5.64975247524752</v>
+        <v>5.60870924997737</v>
       </c>
     </row>
     <row r="374">
@@ -11489,10 +11489,10 @@
         <v>9</v>
       </c>
       <c r="F374" t="n">
-        <v>14.2857142857143</v>
+        <v>14.2342931937173</v>
       </c>
       <c r="G374" t="n">
-        <v>3.41470364741641</v>
+        <v>3.3632825554194</v>
       </c>
     </row>
     <row r="375">
@@ -11512,10 +11512,10 @@
         <v>9</v>
       </c>
       <c r="F375" t="n">
-        <v>17.2922922922923</v>
+        <v>17.3182957393484</v>
       </c>
       <c r="G375" t="n">
-        <v>5.2709887163349</v>
+        <v>5.29699216339098</v>
       </c>
     </row>
     <row r="376">
@@ -11535,10 +11535,10 @@
         <v>9</v>
       </c>
       <c r="F376" t="n">
-        <v>15.3551503039387</v>
+        <v>15.3029045643154</v>
       </c>
       <c r="G376" t="n">
-        <v>3.67253467395466</v>
+        <v>3.6202889343313</v>
       </c>
     </row>
     <row r="377">
@@ -11558,10 +11558,10 @@
         <v>9</v>
       </c>
       <c r="F377" t="n">
-        <v>20.9965731221636</v>
+        <v>20.9635657481043</v>
       </c>
       <c r="G377" t="n">
-        <v>6.43476336085256</v>
+        <v>6.4017559867933</v>
       </c>
     </row>
     <row r="378">
@@ -11581,10 +11581,10 @@
         <v>9</v>
       </c>
       <c r="F378" t="n">
-        <v>12.8761773489547</v>
+        <v>12.8304910152226</v>
       </c>
       <c r="G378" t="n">
-        <v>3.50364158236693</v>
+        <v>3.4579552486348</v>
       </c>
     </row>
     <row r="379">
@@ -11604,10 +11604,10 @@
         <v>9</v>
       </c>
       <c r="F379" t="n">
-        <v>18.8827331486611</v>
+        <v>18.8583548506086</v>
       </c>
       <c r="G379" t="n">
-        <v>5.61288078559657</v>
+        <v>5.58850248754407</v>
       </c>
     </row>
     <row r="380">
@@ -11627,10 +11627,10 @@
         <v>9</v>
       </c>
       <c r="F380" t="n">
-        <v>21.9791666666667</v>
+        <v>21.9220779220779</v>
       </c>
       <c r="G380" t="n">
-        <v>6.42563236313237</v>
+        <v>6.36854361854362</v>
       </c>
     </row>
     <row r="381">
@@ -11650,10 +11650,10 @@
         <v>9</v>
       </c>
       <c r="F381" t="n">
-        <v>13.7635782747604</v>
+        <v>13.7214931838451</v>
       </c>
       <c r="G381" t="n">
-        <v>3.37508552826419</v>
+        <v>3.33300043734889</v>
       </c>
     </row>
     <row r="382">
@@ -11673,10 +11673,10 @@
         <v>9</v>
       </c>
       <c r="F382" t="n">
-        <v>19.7944297082228</v>
+        <v>19.7420634920635</v>
       </c>
       <c r="G382" t="n">
-        <v>6.49944728572361</v>
+        <v>6.44708106956429</v>
       </c>
     </row>
     <row r="383">
@@ -11696,10 +11696,10 @@
         <v>9</v>
       </c>
       <c r="F383" t="n">
-        <v>15.9116331096197</v>
+        <v>15.8849804578448</v>
       </c>
       <c r="G383" t="n">
-        <v>5.02703172629242</v>
+        <v>5.00037907451751</v>
       </c>
     </row>
     <row r="384">
@@ -11719,10 +11719,10 @@
         <v>9</v>
       </c>
       <c r="F384" t="n">
-        <v>19.6534574041393</v>
+        <v>19.6282647011697</v>
       </c>
       <c r="G384" t="n">
-        <v>5.9935421898199</v>
+        <v>5.96834948685032</v>
       </c>
     </row>
     <row r="385">
@@ -11742,10 +11742,10 @@
         <v>9</v>
       </c>
       <c r="F385" t="n">
-        <v>17.2511848341232</v>
+        <v>17.283950617284</v>
       </c>
       <c r="G385" t="n">
-        <v>3.68290289579723</v>
+        <v>3.71566867895796</v>
       </c>
     </row>
     <row r="386">
@@ -11765,10 +11765,10 @@
         <v>9</v>
       </c>
       <c r="F386" t="n">
-        <v>19.9093741149816</v>
+        <v>19.8952879581152</v>
       </c>
       <c r="G386" t="n">
-        <v>5.27522777351818</v>
+        <v>5.26114161665177</v>
       </c>
     </row>
     <row r="387">
@@ -11788,10 +11788,10 @@
         <v>9</v>
       </c>
       <c r="F387" t="n">
-        <v>17.0827489481066</v>
+        <v>17.0206819452208</v>
       </c>
       <c r="G387" t="n">
-        <v>5.87030259617526</v>
+        <v>5.80823559328946</v>
       </c>
     </row>
     <row r="388">
@@ -11811,10 +11811,10 @@
         <v>9</v>
       </c>
       <c r="F388" t="n">
-        <v>22.6775956284153</v>
+        <v>22.6585468290634</v>
       </c>
       <c r="G388" t="n">
-        <v>7.16703983349932</v>
+        <v>7.14799103414743</v>
       </c>
     </row>
     <row r="389">
@@ -11834,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="F389" t="n">
-        <v>21.20232708468</v>
+        <v>21.1886304909561</v>
       </c>
       <c r="G389" t="n">
-        <v>5.34635740685311</v>
+        <v>5.33266081312916</v>
       </c>
     </row>
     <row r="390">
@@ -11857,10 +11857,10 @@
         <v>9</v>
       </c>
       <c r="F390" t="n">
-        <v>17.2297297297297</v>
+        <v>17.1910112359551</v>
       </c>
       <c r="G390" t="n">
-        <v>5.06679226558745</v>
+        <v>5.02807377181277</v>
       </c>
     </row>
     <row r="391">
@@ -11880,10 +11880,10 @@
         <v>9</v>
       </c>
       <c r="F391" t="n">
-        <v>25.7845631891433</v>
+        <v>25.4606365159129</v>
       </c>
       <c r="G391" t="n">
-        <v>9.4717610028915</v>
+        <v>9.14783432966106</v>
       </c>
     </row>
     <row r="392">
@@ -11903,10 +11903,10 @@
         <v>9</v>
       </c>
       <c r="F392" t="n">
-        <v>22.7526210127147</v>
+        <v>22.6918798665184</v>
       </c>
       <c r="G392" t="n">
-        <v>8.29789956724255</v>
+        <v>8.23715842104621</v>
       </c>
     </row>
     <row r="393">
@@ -11926,10 +11926,10 @@
         <v>9</v>
       </c>
       <c r="F393" t="n">
-        <v>22.3463687150838</v>
+        <v>22.2139948167345</v>
       </c>
       <c r="G393" t="n">
-        <v>4.15793655793575</v>
+        <v>4.02556265958649</v>
       </c>
     </row>
     <row r="394">
@@ -11949,10 +11949,10 @@
         <v>9</v>
       </c>
       <c r="F394" t="n">
-        <v>22.6742247415805</v>
+        <v>22.5613802256138</v>
       </c>
       <c r="G394" t="n">
-        <v>6.14609174925316</v>
+        <v>6.03324723328644</v>
       </c>
     </row>
     <row r="395">
@@ -11972,10 +11972,10 @@
         <v>9</v>
       </c>
       <c r="F395" t="n">
-        <v>21.7941952506596</v>
+        <v>21.7254076801683</v>
       </c>
       <c r="G395" t="n">
-        <v>7.85347077206468</v>
+        <v>7.78468320157338</v>
       </c>
     </row>
     <row r="396">
@@ -11995,10 +11995,10 @@
         <v>9</v>
       </c>
       <c r="F396" t="n">
-        <v>23.3546381067542</v>
+        <v>23.3143645456113</v>
       </c>
       <c r="G396" t="n">
-        <v>8.85722693017858</v>
+        <v>8.8169533690357</v>
       </c>
     </row>
     <row r="397">
@@ -12018,10 +12018,10 @@
         <v>9</v>
       </c>
       <c r="F397" t="n">
-        <v>19.624101713654</v>
+        <v>19.6349557522124</v>
       </c>
       <c r="G397" t="n">
-        <v>6.54206180234575</v>
+        <v>6.55291584090419</v>
       </c>
     </row>
     <row r="398">
@@ -12041,10 +12041,10 @@
         <v>9</v>
       </c>
       <c r="F398" t="n">
-        <v>24.6327130264447</v>
+        <v>24.5126705653021</v>
       </c>
       <c r="G398" t="n">
-        <v>8.16129784368927</v>
+        <v>8.04125538254676</v>
       </c>
     </row>
     <row r="399">
@@ -12064,10 +12064,10 @@
         <v>9</v>
       </c>
       <c r="F399" t="n">
-        <v>21.7854966483851</v>
+        <v>21.7457420924574</v>
       </c>
       <c r="G399" t="n">
-        <v>8.36246786240265</v>
+        <v>8.32271330647494</v>
       </c>
     </row>
     <row r="400">
@@ -12087,10 +12087,10 @@
         <v>9</v>
       </c>
       <c r="F400" t="n">
-        <v>19.3140551445864</v>
+        <v>19.2648242554333</v>
       </c>
       <c r="G400" t="n">
-        <v>7.30714851688021</v>
+        <v>7.25791762772712</v>
       </c>
     </row>
     <row r="401">
@@ -12110,10 +12110,10 @@
         <v>9</v>
       </c>
       <c r="F401" t="n">
-        <v>22.3926380368098</v>
+        <v>22.2053231939163</v>
       </c>
       <c r="G401" t="n">
-        <v>5.88851200530194</v>
+        <v>5.70119716240847</v>
       </c>
     </row>
     <row r="402">
@@ -12133,10 +12133,10 @@
         <v>9</v>
       </c>
       <c r="F402" t="n">
-        <v>22.9935424354244</v>
+        <v>22.9195402298851</v>
       </c>
       <c r="G402" t="n">
-        <v>7.86787953480181</v>
+        <v>7.79387732926251</v>
       </c>
     </row>
     <row r="403">
@@ -12156,10 +12156,10 @@
         <v>9</v>
       </c>
       <c r="F403" t="n">
-        <v>22.5612125923047</v>
+        <v>22.5699844479005</v>
       </c>
       <c r="G403" t="n">
-        <v>8.99148200593386</v>
+        <v>9.00025386152962</v>
       </c>
     </row>
     <row r="404">
@@ -12179,10 +12179,10 @@
         <v>9</v>
       </c>
       <c r="F404" t="n">
-        <v>25.9225512528474</v>
+        <v>25.8753979081401</v>
       </c>
       <c r="G404" t="n">
-        <v>8.54812202910309</v>
+        <v>8.50096868439577</v>
       </c>
     </row>
     <row r="405">
@@ -12202,10 +12202,10 @@
         <v>9</v>
       </c>
       <c r="F405" t="n">
-        <v>24.5949535192563</v>
+        <v>24.5038369939137</v>
       </c>
       <c r="G405" t="n">
-        <v>6.51953089246827</v>
+        <v>6.4284143671257</v>
       </c>
     </row>
     <row r="406">
@@ -12225,10 +12225,10 @@
         <v>9</v>
       </c>
       <c r="F406" t="n">
-        <v>16.8917832448947</v>
+        <v>16.8633116622522</v>
       </c>
       <c r="G406" t="n">
-        <v>4.92583399979349</v>
+        <v>4.897362417151</v>
       </c>
     </row>
     <row r="407">
@@ -12248,10 +12248,10 @@
         <v>9</v>
       </c>
       <c r="F407" t="n">
-        <v>24.6674214548542</v>
+        <v>24.644750795334</v>
       </c>
       <c r="G407" t="n">
-        <v>8.62190225144029</v>
+        <v>8.5992315919201</v>
       </c>
     </row>
     <row r="408">
@@ -12271,10 +12271,10 @@
         <v>9</v>
       </c>
       <c r="F408" t="n">
-        <v>18.5291582878483</v>
+        <v>18.4681460272011</v>
       </c>
       <c r="G408" t="n">
-        <v>6.54830512721197</v>
+        <v>6.4872928665648</v>
       </c>
     </row>
     <row r="409">
@@ -12294,10 +12294,10 @@
         <v>9</v>
       </c>
       <c r="F409" t="n">
-        <v>23.6560894037034</v>
+        <v>23.6348818255909</v>
       </c>
       <c r="G409" t="n">
-        <v>6.76643097461478</v>
+        <v>6.74522339650225</v>
       </c>
     </row>
     <row r="410">
@@ -12317,10 +12317,10 @@
         <v>9</v>
       </c>
       <c r="F410" t="n">
-        <v>21.1755840241145</v>
+        <v>21.1119459053343</v>
       </c>
       <c r="G410" t="n">
-        <v>8.32863715654912</v>
+        <v>8.26499903776891</v>
       </c>
     </row>
     <row r="411">
@@ -12340,10 +12340,10 @@
         <v>9</v>
       </c>
       <c r="F411" t="n">
-        <v>16.5220839736281</v>
+        <v>16.4592592592593</v>
       </c>
       <c r="G411" t="n">
-        <v>5.13775325346451</v>
+        <v>5.07492853909566</v>
       </c>
     </row>
     <row r="412">
@@ -12363,10 +12363,10 @@
         <v>9</v>
       </c>
       <c r="F412" t="n">
-        <v>20.8062145706488</v>
+        <v>20.7192138825005</v>
       </c>
       <c r="G412" t="n">
-        <v>7.3727646632223</v>
+        <v>7.28576397507407</v>
       </c>
     </row>
     <row r="413">
@@ -12386,10 +12386,10 @@
         <v>9</v>
       </c>
       <c r="F413" t="n">
-        <v>18.0074434583453</v>
+        <v>17.9406731317741</v>
       </c>
       <c r="G413" t="n">
-        <v>6.30986856533528</v>
+        <v>6.24309823876411</v>
       </c>
     </row>
     <row r="414">
@@ -12409,10 +12409,10 @@
         <v>9</v>
       </c>
       <c r="F414" t="n">
-        <v>23.4551864910002</v>
+        <v>23.3641404805915</v>
       </c>
       <c r="G414" t="n">
-        <v>9.53311874085333</v>
+        <v>9.44207273044464</v>
       </c>
     </row>
     <row r="415">
@@ -12432,10 +12432,10 @@
         <v>9</v>
       </c>
       <c r="F415" t="n">
-        <v>21.2819228843265</v>
+        <v>21.2075848303393</v>
       </c>
       <c r="G415" t="n">
-        <v>5.67827823740166</v>
+        <v>5.60394018341449</v>
       </c>
     </row>
     <row r="416">
@@ -12455,10 +12455,10 @@
         <v>9</v>
       </c>
       <c r="F416" t="n">
-        <v>25.5525606469003</v>
+        <v>25.4701773240193</v>
       </c>
       <c r="G416" t="n">
-        <v>7.62538977855293</v>
+        <v>7.543006455672</v>
       </c>
     </row>
     <row r="417">
@@ -12501,10 +12501,10 @@
         <v>9</v>
       </c>
       <c r="F418" t="n">
-        <v>21.862871927555</v>
+        <v>21.8008255933953</v>
       </c>
       <c r="G418" t="n">
-        <v>6.81974661045706</v>
+        <v>6.75770027629733</v>
       </c>
     </row>
     <row r="419">
@@ -12524,10 +12524,10 @@
         <v>9</v>
       </c>
       <c r="F419" t="n">
-        <v>24.5086241476133</v>
+        <v>24.3912175648703</v>
       </c>
       <c r="G419" t="n">
-        <v>5.79793232371395</v>
+        <v>5.68052574097089</v>
       </c>
     </row>
     <row r="420">
@@ -12547,10 +12547,10 @@
         <v>9</v>
       </c>
       <c r="F420" t="n">
-        <v>24.3492518958803</v>
+        <v>24.235006119951</v>
       </c>
       <c r="G420" t="n">
-        <v>6.92834680977698</v>
+        <v>6.81410103384772</v>
       </c>
     </row>
     <row r="421">
@@ -12570,10 +12570,10 @@
         <v>9</v>
       </c>
       <c r="F421" t="n">
-        <v>22.5380039656312</v>
+        <v>22.4391313884624</v>
       </c>
       <c r="G421" t="n">
-        <v>8.71998635443228</v>
+        <v>8.62111377726347</v>
       </c>
     </row>
     <row r="422">
@@ -12593,10 +12593,10 @@
         <v>9</v>
       </c>
       <c r="F422" t="n">
-        <v>16.40625</v>
+        <v>16.3239719157472</v>
       </c>
       <c r="G422" t="n">
-        <v>4.42123127340824</v>
+        <v>4.33895318915548</v>
       </c>
     </row>
   </sheetData>
